--- a/analyses/input/SLA2019.xlsx
+++ b/analyses/input/SLA2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/CGtraits/analyses/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="0" windowWidth="25040" windowHeight="13680" tabRatio="500"/>
+    <workbookView xWindow="2200" yWindow="460" windowWidth="25040" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +19,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="473">
   <si>
     <t>Individual</t>
   </si>
@@ -1441,6 +1446,9 @@
   </si>
   <si>
     <t xml:space="preserve">SPITOM_GR_2D_2 </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1796,18 +1804,18 @@
   <dimension ref="A1:H615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C277" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H217" sqref="H217"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1843,6 +1851,9 @@
       <c r="C2">
         <v>1.127</v>
       </c>
+      <c r="D2">
+        <v>0.47388000000000002</v>
+      </c>
       <c r="E2">
         <v>68.278000000000006</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1866,6 +1877,9 @@
       <c r="C3">
         <v>0.99168999999999996</v>
       </c>
+      <c r="D3">
+        <v>0.41471000000000002</v>
+      </c>
       <c r="E3">
         <v>61.072000000000003</v>
       </c>
@@ -1879,7 +1893,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1889,6 +1903,9 @@
       <c r="C4">
         <v>0.60494000000000003</v>
       </c>
+      <c r="D4">
+        <v>0.25209999999999999</v>
+      </c>
       <c r="E4">
         <v>40.118000000000002</v>
       </c>
@@ -1902,7 +1919,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1912,6 +1929,9 @@
       <c r="C5">
         <v>0.55706</v>
       </c>
+      <c r="D5">
+        <v>0.21997</v>
+      </c>
       <c r="E5">
         <v>39.103000000000002</v>
       </c>
@@ -1925,7 +1945,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1935,6 +1955,9 @@
       <c r="C6">
         <v>0.27051999999999998</v>
       </c>
+      <c r="D6">
+        <v>0.10345</v>
+      </c>
       <c r="E6">
         <v>18.036999999999999</v>
       </c>
@@ -1948,7 +1971,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1958,6 +1981,9 @@
       <c r="C7">
         <v>0.26688000000000001</v>
       </c>
+      <c r="D7">
+        <v>0.11575000000000001</v>
+      </c>
       <c r="E7">
         <v>21.515000000000001</v>
       </c>
@@ -1971,7 +1997,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1981,6 +2007,9 @@
       <c r="C8">
         <v>0.38327</v>
       </c>
+      <c r="D8">
+        <v>0.18970999999999999</v>
+      </c>
       <c r="E8">
         <v>33.576999999999998</v>
       </c>
@@ -1994,7 +2023,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2004,6 +2033,9 @@
       <c r="C9">
         <v>1.7350000000000001</v>
       </c>
+      <c r="D9">
+        <v>0.67750999999999995</v>
+      </c>
       <c r="E9">
         <v>61.49</v>
       </c>
@@ -2017,7 +2049,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2027,6 +2059,9 @@
       <c r="C10">
         <v>1.2669999999999999</v>
       </c>
+      <c r="D10">
+        <v>0.55212000000000006</v>
+      </c>
       <c r="E10">
         <v>77.328999999999994</v>
       </c>
@@ -2040,7 +2075,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2050,6 +2085,9 @@
       <c r="C11">
         <v>1.585</v>
       </c>
+      <c r="D11">
+        <v>0.68823999999999996</v>
+      </c>
       <c r="E11">
         <v>87.945999999999998</v>
       </c>
@@ -2063,7 +2101,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2073,6 +2111,9 @@
       <c r="C12">
         <v>1.5542</v>
       </c>
+      <c r="D12">
+        <v>0.67793999999999999</v>
+      </c>
       <c r="E12">
         <v>84.132000000000005</v>
       </c>
@@ -2086,7 +2127,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2096,6 +2137,9 @@
       <c r="C13">
         <v>1.2849999999999999</v>
       </c>
+      <c r="D13">
+        <v>0.54903999999999997</v>
+      </c>
       <c r="E13">
         <v>71.572999999999993</v>
       </c>
@@ -2109,7 +2153,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2119,6 +2163,9 @@
       <c r="C14">
         <v>1.3620000000000001</v>
       </c>
+      <c r="D14">
+        <v>0.56235000000000002</v>
+      </c>
       <c r="E14">
         <v>67.757000000000005</v>
       </c>
@@ -2132,7 +2179,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2142,6 +2189,9 @@
       <c r="C15">
         <v>1.04</v>
       </c>
+      <c r="D15">
+        <v>0.42714999999999997</v>
+      </c>
       <c r="E15">
         <v>57.241999999999997</v>
       </c>
@@ -2155,7 +2205,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2165,6 +2215,9 @@
       <c r="C16">
         <v>0.26650000000000001</v>
       </c>
+      <c r="D16">
+        <v>0.10421999999999999</v>
+      </c>
       <c r="E16">
         <v>17.63</v>
       </c>
@@ -2178,7 +2231,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2188,6 +2241,9 @@
       <c r="C17">
         <v>0.41564000000000001</v>
       </c>
+      <c r="D17">
+        <v>0.17468</v>
+      </c>
       <c r="E17">
         <v>28.725000000000001</v>
       </c>
@@ -2201,7 +2257,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2211,6 +2267,9 @@
       <c r="C18">
         <v>1.19106</v>
       </c>
+      <c r="D18">
+        <v>0.50016000000000005</v>
+      </c>
       <c r="E18">
         <v>72.241</v>
       </c>
@@ -2224,7 +2283,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2234,6 +2293,9 @@
       <c r="C19">
         <v>1.3133300000000001</v>
       </c>
+      <c r="D19">
+        <v>0.57445000000000002</v>
+      </c>
       <c r="E19">
         <v>68.003</v>
       </c>
@@ -2247,7 +2309,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2257,6 +2319,9 @@
       <c r="C20">
         <v>1.06501</v>
       </c>
+      <c r="D20">
+        <v>0.43107000000000001</v>
+      </c>
       <c r="E20">
         <v>61.935000000000002</v>
       </c>
@@ -2270,7 +2335,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2280,6 +2345,9 @@
       <c r="C21">
         <v>0.66037000000000001</v>
       </c>
+      <c r="D21">
+        <v>0.28883999999999999</v>
+      </c>
       <c r="E21">
         <v>45.095999999999997</v>
       </c>
@@ -2293,7 +2361,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2303,6 +2371,9 @@
       <c r="C22">
         <v>0.72</v>
       </c>
+      <c r="D22">
+        <v>0.30168</v>
+      </c>
       <c r="E22">
         <v>48.054000000000002</v>
       </c>
@@ -2316,7 +2387,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2326,6 +2397,9 @@
       <c r="C23">
         <v>1.0107999999999999</v>
       </c>
+      <c r="D23">
+        <v>0.42799999999999999</v>
+      </c>
       <c r="E23">
         <v>70.427000000000007</v>
       </c>
@@ -2339,7 +2413,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2349,6 +2423,9 @@
       <c r="C24">
         <v>1.1772</v>
       </c>
+      <c r="D24">
+        <v>0.52315</v>
+      </c>
       <c r="E24">
         <v>63.128</v>
       </c>
@@ -2362,7 +2439,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2372,6 +2449,9 @@
       <c r="C25">
         <v>1.2804</v>
       </c>
+      <c r="D25">
+        <v>0.53178000000000003</v>
+      </c>
       <c r="E25">
         <v>61.36</v>
       </c>
@@ -2385,7 +2465,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2395,6 +2475,9 @@
       <c r="C26">
         <v>0.44342999999999999</v>
       </c>
+      <c r="D26">
+        <v>0.18107000000000001</v>
+      </c>
       <c r="E26">
         <v>23.736000000000001</v>
       </c>
@@ -2408,7 +2491,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2418,6 +2501,9 @@
       <c r="C27">
         <v>1.17567</v>
       </c>
+      <c r="D27">
+        <v>0.54279999999999995</v>
+      </c>
       <c r="E27">
         <v>66.716999999999999</v>
       </c>
@@ -2431,7 +2517,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2441,6 +2527,9 @@
       <c r="C28">
         <v>0.81257000000000001</v>
       </c>
+      <c r="D28">
+        <v>0.37131999999999998</v>
+      </c>
       <c r="E28">
         <v>48.009</v>
       </c>
@@ -2454,7 +2543,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2464,6 +2553,9 @@
       <c r="C29">
         <v>1.1499999999999999</v>
       </c>
+      <c r="D29">
+        <v>0.52868999999999999</v>
+      </c>
       <c r="E29">
         <v>66.438999999999993</v>
       </c>
@@ -2477,7 +2569,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2487,6 +2579,9 @@
       <c r="C30">
         <v>0.59162000000000003</v>
       </c>
+      <c r="D30">
+        <v>0.26100000000000001</v>
+      </c>
       <c r="E30">
         <v>39.448999999999998</v>
       </c>
@@ -2500,7 +2595,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2510,6 +2605,9 @@
       <c r="C31">
         <v>0.62117</v>
       </c>
+      <c r="D31">
+        <v>0.25606000000000001</v>
+      </c>
       <c r="E31">
         <v>45.162999999999997</v>
       </c>
@@ -2523,7 +2621,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2533,6 +2631,9 @@
       <c r="C32">
         <v>0.80030000000000001</v>
       </c>
+      <c r="D32">
+        <v>0.34372999999999998</v>
+      </c>
       <c r="E32">
         <v>39.433999999999997</v>
       </c>
@@ -2546,7 +2647,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2556,6 +2657,9 @@
       <c r="C33">
         <v>1.11337</v>
       </c>
+      <c r="D33">
+        <v>0.48085</v>
+      </c>
       <c r="E33">
         <v>51.805999999999997</v>
       </c>
@@ -2569,7 +2673,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2579,6 +2683,9 @@
       <c r="C34">
         <v>0.83399999999999996</v>
       </c>
+      <c r="D34">
+        <v>0.33889000000000002</v>
+      </c>
       <c r="E34">
         <v>42.506</v>
       </c>
@@ -2592,7 +2699,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2602,6 +2709,9 @@
       <c r="C35">
         <v>0.37314999999999998</v>
       </c>
+      <c r="D35">
+        <v>0.15825</v>
+      </c>
       <c r="E35">
         <v>24.67</v>
       </c>
@@ -2615,7 +2725,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2625,6 +2735,9 @@
       <c r="C36">
         <v>0.98407</v>
       </c>
+      <c r="D36">
+        <v>0.43070000000000003</v>
+      </c>
       <c r="E36">
         <v>59.805999999999997</v>
       </c>
@@ -2638,7 +2751,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2648,6 +2761,9 @@
       <c r="C37">
         <v>1.11534</v>
       </c>
+      <c r="D37">
+        <v>0.49442000000000003</v>
+      </c>
       <c r="E37">
         <v>71.293999999999997</v>
       </c>
@@ -2661,7 +2777,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2671,6 +2787,9 @@
       <c r="C38">
         <v>8.4839999999999999E-2</v>
       </c>
+      <c r="D38">
+        <v>4.4970000000000003E-2</v>
+      </c>
       <c r="E38">
         <v>6.5209999999999999</v>
       </c>
@@ -2684,7 +2803,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2694,6 +2813,9 @@
       <c r="C39">
         <v>0.15342</v>
       </c>
+      <c r="D39">
+        <v>7.9549999999999996E-2</v>
+      </c>
       <c r="E39">
         <v>9.0229999999999997</v>
       </c>
@@ -2707,7 +2829,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2717,6 +2839,9 @@
       <c r="C40">
         <v>0.48220000000000002</v>
       </c>
+      <c r="D40">
+        <v>0.21601000000000001</v>
+      </c>
       <c r="E40">
         <v>33.558</v>
       </c>
@@ -2730,7 +2855,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2740,6 +2865,9 @@
       <c r="C41">
         <v>0.29770999999999997</v>
       </c>
+      <c r="D41">
+        <v>0.13414999999999999</v>
+      </c>
       <c r="E41">
         <v>21.023</v>
       </c>
@@ -2753,7 +2881,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2763,6 +2891,9 @@
       <c r="C42">
         <v>0.31107000000000001</v>
       </c>
+      <c r="D42">
+        <v>0.12612999999999999</v>
+      </c>
       <c r="E42">
         <v>20.173999999999999</v>
       </c>
@@ -2776,7 +2907,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2786,6 +2917,9 @@
       <c r="C43">
         <v>0.21801999999999999</v>
       </c>
+      <c r="D43">
+        <v>9.1249999999999998E-2</v>
+      </c>
       <c r="E43">
         <v>14.102</v>
       </c>
@@ -2799,7 +2933,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2807,7 +2941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2815,7 +2949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2825,6 +2959,9 @@
       <c r="C46">
         <v>0.87412999999999996</v>
       </c>
+      <c r="D46">
+        <v>0.37595000000000001</v>
+      </c>
       <c r="E46">
         <v>54.328000000000003</v>
       </c>
@@ -2838,7 +2975,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2848,6 +2985,9 @@
       <c r="C47">
         <v>1.3220000000000001</v>
       </c>
+      <c r="D47">
+        <v>0.59972999999999999</v>
+      </c>
       <c r="E47">
         <v>75.700999999999993</v>
       </c>
@@ -2861,7 +3001,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2871,6 +3011,9 @@
       <c r="C48">
         <v>0.35688999999999999</v>
       </c>
+      <c r="D48">
+        <v>0.14424999999999999</v>
+      </c>
       <c r="E48">
         <v>25.263999999999999</v>
       </c>
@@ -2884,7 +3027,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2894,6 +3037,9 @@
       <c r="C49">
         <v>0.33499000000000001</v>
       </c>
+      <c r="D49">
+        <v>0.13436999999999999</v>
+      </c>
       <c r="E49">
         <v>25.111000000000001</v>
       </c>
@@ -2907,7 +3053,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2917,6 +3063,9 @@
       <c r="C50">
         <v>0.46317000000000003</v>
       </c>
+      <c r="D50">
+        <v>0.19283</v>
+      </c>
       <c r="E50">
         <v>30.649000000000001</v>
       </c>
@@ -2930,7 +3079,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2940,6 +3089,9 @@
       <c r="C51">
         <v>0.50222999999999995</v>
       </c>
+      <c r="D51">
+        <v>0.21823999999999999</v>
+      </c>
       <c r="E51">
         <v>39.478999999999999</v>
       </c>
@@ -2953,7 +3105,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2963,6 +3115,9 @@
       <c r="C52">
         <v>1.03573</v>
       </c>
+      <c r="D52">
+        <v>0.46011000000000002</v>
+      </c>
       <c r="E52">
         <v>54.378999999999998</v>
       </c>
@@ -2976,7 +3131,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2986,6 +3141,9 @@
       <c r="C53">
         <v>1.3605400000000001</v>
       </c>
+      <c r="D53">
+        <v>0.59016999999999997</v>
+      </c>
       <c r="E53">
         <v>69.325000000000003</v>
       </c>
@@ -2999,7 +3157,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -3009,6 +3167,9 @@
       <c r="C54">
         <v>1.5940000000000001</v>
       </c>
+      <c r="D54">
+        <v>0.71414</v>
+      </c>
       <c r="E54">
         <v>78.463999999999999</v>
       </c>
@@ -3022,7 +3183,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -3032,6 +3193,9 @@
       <c r="C55">
         <v>1.518</v>
       </c>
+      <c r="D55">
+        <v>0.67715000000000003</v>
+      </c>
       <c r="E55">
         <v>83.796000000000006</v>
       </c>
@@ -3045,7 +3209,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -3055,6 +3219,9 @@
       <c r="C56">
         <v>0.50529000000000002</v>
       </c>
+      <c r="D56">
+        <v>0.21356</v>
+      </c>
       <c r="E56">
         <v>28.818999999999999</v>
       </c>
@@ -3068,7 +3235,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3078,6 +3245,9 @@
       <c r="C57">
         <v>1.4247000000000001</v>
       </c>
+      <c r="D57">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="E57">
         <v>68.457999999999998</v>
       </c>
@@ -3091,7 +3261,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -3101,6 +3271,9 @@
       <c r="C58">
         <v>0.59797999999999996</v>
       </c>
+      <c r="D58">
+        <v>0.25683</v>
+      </c>
       <c r="E58">
         <v>35.814</v>
       </c>
@@ -3114,7 +3287,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -3124,6 +3297,9 @@
       <c r="C59">
         <v>0.92771999999999999</v>
       </c>
+      <c r="D59">
+        <v>0.40600000000000003</v>
+      </c>
       <c r="E59">
         <v>55.74</v>
       </c>
@@ -3137,7 +3313,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -3147,6 +3323,9 @@
       <c r="C60">
         <v>0.77883999999999998</v>
       </c>
+      <c r="D60">
+        <v>0.34306999999999999</v>
+      </c>
       <c r="E60">
         <v>37.386000000000003</v>
       </c>
@@ -3160,7 +3339,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -3170,6 +3349,9 @@
       <c r="C61">
         <v>0.9385</v>
       </c>
+      <c r="D61">
+        <v>0.41488999999999998</v>
+      </c>
       <c r="E61">
         <v>47.643000000000001</v>
       </c>
@@ -3183,7 +3365,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -3193,6 +3375,9 @@
       <c r="C62">
         <v>1.1811400000000001</v>
       </c>
+      <c r="D62">
+        <v>0.42287000000000002</v>
+      </c>
       <c r="E62">
         <v>71.176000000000002</v>
       </c>
@@ -3206,7 +3391,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -3216,6 +3401,9 @@
       <c r="C63">
         <v>1.3725700000000001</v>
       </c>
+      <c r="D63">
+        <v>0.48959999999999998</v>
+      </c>
       <c r="E63">
         <v>76.191999999999993</v>
       </c>
@@ -3229,7 +3417,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -3239,6 +3427,9 @@
       <c r="C64">
         <v>0.67967</v>
       </c>
+      <c r="D64">
+        <v>0.27134000000000003</v>
+      </c>
       <c r="E64">
         <v>40.884999999999998</v>
       </c>
@@ -3252,7 +3443,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -3262,6 +3453,9 @@
       <c r="C65">
         <v>0.62295</v>
       </c>
+      <c r="D65">
+        <v>0.24939</v>
+      </c>
       <c r="E65">
         <v>37.219000000000001</v>
       </c>
@@ -3275,7 +3469,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -3285,6 +3479,9 @@
       <c r="C66">
         <v>0.94116999999999995</v>
       </c>
+      <c r="D66">
+        <v>0.39873999999999998</v>
+      </c>
       <c r="E66">
         <v>52.829000000000001</v>
       </c>
@@ -3298,7 +3495,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -3308,6 +3505,9 @@
       <c r="C67">
         <v>1.0652600000000001</v>
       </c>
+      <c r="D67">
+        <v>0.43591999999999997</v>
+      </c>
       <c r="E67">
         <v>66.477000000000004</v>
       </c>
@@ -3321,7 +3521,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -3329,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -3337,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -3347,6 +3547,9 @@
       <c r="C70">
         <v>1.1574199999999999</v>
       </c>
+      <c r="D70">
+        <v>0.48536000000000001</v>
+      </c>
       <c r="E70">
         <v>64.299000000000007</v>
       </c>
@@ -3360,7 +3563,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -3370,6 +3573,9 @@
       <c r="C71">
         <v>1.0124500000000001</v>
       </c>
+      <c r="D71">
+        <v>0.42244999999999999</v>
+      </c>
       <c r="E71">
         <v>52.731000000000002</v>
       </c>
@@ -3383,7 +3589,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -3393,6 +3599,9 @@
       <c r="C72">
         <v>0.79678000000000004</v>
       </c>
+      <c r="D72">
+        <v>0.34111000000000002</v>
+      </c>
       <c r="E72">
         <v>48.417000000000002</v>
       </c>
@@ -3406,7 +3615,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -3416,6 +3625,9 @@
       <c r="C73">
         <v>0.59960000000000002</v>
       </c>
+      <c r="D73">
+        <v>0.25145000000000001</v>
+      </c>
       <c r="E73">
         <v>37.389000000000003</v>
       </c>
@@ -3429,7 +3641,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -3439,6 +3651,9 @@
       <c r="C74">
         <v>0.74680000000000002</v>
       </c>
+      <c r="D74">
+        <v>0.32212000000000002</v>
+      </c>
       <c r="E74">
         <v>50.887999999999998</v>
       </c>
@@ -3452,7 +3667,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -3462,6 +3677,9 @@
       <c r="C75">
         <v>0.77349999999999997</v>
       </c>
+      <c r="D75">
+        <v>0.33814</v>
+      </c>
       <c r="E75">
         <v>51.011000000000003</v>
       </c>
@@ -3475,7 +3693,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3485,6 +3703,9 @@
       <c r="C76">
         <v>0.58052999999999999</v>
       </c>
+      <c r="D76">
+        <v>0.24435000000000001</v>
+      </c>
       <c r="E76">
         <v>38.473999999999997</v>
       </c>
@@ -3498,7 +3719,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -3508,6 +3729,9 @@
       <c r="C77">
         <v>0.40389000000000003</v>
       </c>
+      <c r="D77">
+        <v>0.17191999999999999</v>
+      </c>
       <c r="E77">
         <v>24.727</v>
       </c>
@@ -3521,7 +3745,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -3531,6 +3755,9 @@
       <c r="C78">
         <v>8.9139999999999997E-2</v>
       </c>
+      <c r="D78">
+        <v>4.5990000000000003E-2</v>
+      </c>
       <c r="E78">
         <v>6.88</v>
       </c>
@@ -3544,7 +3771,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -3554,6 +3781,9 @@
       <c r="C79">
         <v>0.12553</v>
       </c>
+      <c r="D79">
+        <v>5.8639999999999998E-2</v>
+      </c>
       <c r="E79">
         <v>7.7229999999999999</v>
       </c>
@@ -3567,7 +3797,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -3577,6 +3807,9 @@
       <c r="C80">
         <v>1.28617</v>
       </c>
+      <c r="D80">
+        <v>0.56869999999999998</v>
+      </c>
       <c r="E80">
         <v>62.508000000000003</v>
       </c>
@@ -3590,7 +3823,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -3600,6 +3833,9 @@
       <c r="C81">
         <v>1.3643700000000001</v>
       </c>
+      <c r="D81">
+        <v>0.59714999999999996</v>
+      </c>
       <c r="E81">
         <v>74.263000000000005</v>
       </c>
@@ -3613,7 +3849,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -3623,6 +3859,9 @@
       <c r="C82">
         <v>0.39850000000000002</v>
       </c>
+      <c r="D82">
+        <v>0.18756999999999999</v>
+      </c>
       <c r="E82">
         <v>17.943999999999999</v>
       </c>
@@ -3636,7 +3875,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -3646,6 +3885,9 @@
       <c r="C83">
         <v>0.23286999999999999</v>
       </c>
+      <c r="D83">
+        <v>0.1048</v>
+      </c>
       <c r="E83">
         <v>11.292999999999999</v>
       </c>
@@ -3659,7 +3901,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -3669,6 +3911,9 @@
       <c r="C84">
         <v>1.8520000000000001</v>
       </c>
+      <c r="D84">
+        <v>0.80764000000000002</v>
+      </c>
       <c r="E84">
         <v>77.811000000000007</v>
       </c>
@@ -3682,7 +3927,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -3692,6 +3937,9 @@
       <c r="C85">
         <v>1.2147699999999999</v>
       </c>
+      <c r="D85">
+        <v>0.51261999999999996</v>
+      </c>
       <c r="E85">
         <v>63.97</v>
       </c>
@@ -3705,7 +3953,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -3715,6 +3963,9 @@
       <c r="C86">
         <v>0.62919999999999998</v>
       </c>
+      <c r="D86">
+        <v>0.27856999999999998</v>
+      </c>
       <c r="E86">
         <v>37.689</v>
       </c>
@@ -3728,7 +3979,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -3738,6 +3989,9 @@
       <c r="C87">
         <v>0.82499999999999996</v>
       </c>
+      <c r="D87">
+        <v>0.33229999999999998</v>
+      </c>
       <c r="E87">
         <v>49.728999999999999</v>
       </c>
@@ -3751,7 +4005,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -3761,6 +4015,9 @@
       <c r="C88">
         <v>0.40193000000000001</v>
       </c>
+      <c r="D88">
+        <v>0.18459999999999999</v>
+      </c>
       <c r="E88">
         <v>25.33</v>
       </c>
@@ -3774,7 +4031,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -3784,6 +4041,9 @@
       <c r="C89">
         <v>0.4657</v>
       </c>
+      <c r="D89">
+        <v>0.2142</v>
+      </c>
       <c r="E89">
         <v>28.206</v>
       </c>
@@ -3797,7 +4057,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -3807,6 +4067,9 @@
       <c r="C90">
         <v>0.8508</v>
       </c>
+      <c r="D90">
+        <v>0.33494000000000002</v>
+      </c>
       <c r="E90">
         <v>49.366</v>
       </c>
@@ -3820,7 +4083,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -3830,6 +4093,9 @@
       <c r="C91">
         <v>0.96</v>
       </c>
+      <c r="D91">
+        <v>0.38213999999999998</v>
+      </c>
       <c r="E91">
         <v>53.137</v>
       </c>
@@ -3843,7 +4109,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -3853,6 +4119,9 @@
       <c r="C92">
         <v>0.51080000000000003</v>
       </c>
+      <c r="D92">
+        <v>0.20619000000000001</v>
+      </c>
       <c r="E92">
         <v>22.86</v>
       </c>
@@ -3866,7 +4135,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -3876,6 +4145,9 @@
       <c r="C93">
         <v>0.53537000000000001</v>
       </c>
+      <c r="D93">
+        <v>0.2288</v>
+      </c>
       <c r="E93">
         <v>26.504000000000001</v>
       </c>
@@ -3889,7 +4161,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>80</v>
       </c>
@@ -3899,6 +4171,9 @@
       <c r="C94">
         <v>0.76515999999999995</v>
       </c>
+      <c r="D94">
+        <v>0.33489999999999998</v>
+      </c>
       <c r="E94">
         <v>42.911000000000001</v>
       </c>
@@ -3912,7 +4187,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -3922,6 +4197,9 @@
       <c r="C95">
         <v>0.89139000000000002</v>
       </c>
+      <c r="D95">
+        <v>0.39080999999999999</v>
+      </c>
       <c r="E95">
         <v>47.454999999999998</v>
       </c>
@@ -3935,7 +4213,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -3945,6 +4223,9 @@
       <c r="C96">
         <v>0.68350999999999995</v>
       </c>
+      <c r="D96">
+        <v>0.29721999999999998</v>
+      </c>
       <c r="E96">
         <v>49.960999999999999</v>
       </c>
@@ -3958,7 +4239,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>56</v>
       </c>
@@ -3968,6 +4249,9 @@
       <c r="C97">
         <v>0.84055000000000002</v>
       </c>
+      <c r="D97">
+        <v>0.36721999999999999</v>
+      </c>
       <c r="E97">
         <v>49.1</v>
       </c>
@@ -3981,7 +4265,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -3991,6 +4275,9 @@
       <c r="C98">
         <v>0.59499999999999997</v>
       </c>
+      <c r="D98">
+        <v>0.24565000000000001</v>
+      </c>
       <c r="E98">
         <v>26.033999999999999</v>
       </c>
@@ -4004,7 +4291,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -4014,6 +4301,9 @@
       <c r="C99">
         <v>0.71020000000000005</v>
       </c>
+      <c r="D99">
+        <v>0.28497</v>
+      </c>
       <c r="E99">
         <v>34.003999999999998</v>
       </c>
@@ -4027,7 +4317,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -4037,6 +4327,9 @@
       <c r="C100">
         <v>0.55740000000000001</v>
       </c>
+      <c r="D100">
+        <v>0.20393</v>
+      </c>
       <c r="E100">
         <v>51.892000000000003</v>
       </c>
@@ -4050,7 +4343,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -4060,6 +4353,9 @@
       <c r="C101">
         <v>0.86938000000000004</v>
       </c>
+      <c r="D101">
+        <v>0.34101999999999999</v>
+      </c>
       <c r="E101">
         <v>48.206000000000003</v>
       </c>
@@ -4073,7 +4369,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -4083,6 +4379,9 @@
       <c r="C102">
         <v>0.11265</v>
       </c>
+      <c r="D102">
+        <v>5.8110000000000002E-2</v>
+      </c>
       <c r="E102">
         <v>47.066000000000003</v>
       </c>
@@ -4096,7 +4395,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -4106,6 +4405,9 @@
       <c r="C103">
         <v>0.12373000000000001</v>
       </c>
+      <c r="D103">
+        <v>6.3759999999999997E-2</v>
+      </c>
       <c r="E103">
         <v>9.8580000000000005</v>
       </c>
@@ -4119,7 +4421,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>314</v>
       </c>
@@ -4129,6 +4431,9 @@
       <c r="C104">
         <v>0.28005999999999998</v>
       </c>
+      <c r="D104">
+        <v>0.11711000000000001</v>
+      </c>
       <c r="E104">
         <v>14.504</v>
       </c>
@@ -4142,7 +4447,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>315</v>
       </c>
@@ -4152,6 +4457,9 @@
       <c r="C105">
         <v>0.39369999999999999</v>
       </c>
+      <c r="D105">
+        <v>0.14143</v>
+      </c>
       <c r="E105">
         <v>16.655999999999999</v>
       </c>
@@ -4165,7 +4473,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -4173,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -4181,7 +4489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -4191,6 +4499,9 @@
       <c r="C108">
         <v>0.10821</v>
       </c>
+      <c r="D108">
+        <v>5.6640000000000003E-2</v>
+      </c>
       <c r="E108">
         <v>10.179</v>
       </c>
@@ -4204,7 +4515,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>93</v>
       </c>
@@ -4214,6 +4525,9 @@
       <c r="C109">
         <v>0.19403000000000001</v>
       </c>
+      <c r="D109">
+        <v>9.5549999999999996E-2</v>
+      </c>
       <c r="E109">
         <v>16.673999999999999</v>
       </c>
@@ -4227,7 +4541,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -4237,6 +4551,9 @@
       <c r="C110">
         <v>0.13983999999999999</v>
       </c>
+      <c r="D110">
+        <v>7.2150000000000006E-2</v>
+      </c>
       <c r="E110">
         <v>7.407</v>
       </c>
@@ -4250,7 +4567,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -4260,6 +4577,9 @@
       <c r="C111">
         <v>8.6269999999999999E-2</v>
       </c>
+      <c r="D111">
+        <v>4.3560000000000001E-2</v>
+      </c>
       <c r="E111">
         <v>5.9249999999999998</v>
       </c>
@@ -4273,7 +4593,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -4283,6 +4603,9 @@
       <c r="C112">
         <v>0.12975</v>
       </c>
+      <c r="D112">
+        <v>5.2010000000000001E-2</v>
+      </c>
       <c r="E112">
         <v>6.9829999999999997</v>
       </c>
@@ -4296,7 +4619,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -4306,6 +4629,9 @@
       <c r="C113">
         <v>0.10782</v>
       </c>
+      <c r="D113">
+        <v>4.7559999999999998E-2</v>
+      </c>
       <c r="E113">
         <v>6.7489999999999997</v>
       </c>
@@ -4319,7 +4645,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>100</v>
       </c>
@@ -4329,6 +4655,9 @@
       <c r="C114">
         <v>8.6699999999999999E-2</v>
       </c>
+      <c r="D114">
+        <v>3.117E-2</v>
+      </c>
       <c r="E114">
         <v>6.32</v>
       </c>
@@ -4342,7 +4671,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>101</v>
       </c>
@@ -4352,6 +4681,9 @@
       <c r="C115">
         <v>9.0880000000000002E-2</v>
       </c>
+      <c r="D115">
+        <v>4.052E-2</v>
+      </c>
       <c r="E115">
         <v>6.2859999999999996</v>
       </c>
@@ -4365,7 +4697,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>102</v>
       </c>
@@ -4375,6 +4707,9 @@
       <c r="C116">
         <v>0.11033</v>
       </c>
+      <c r="D116">
+        <v>5.425E-2</v>
+      </c>
       <c r="E116">
         <v>10.023</v>
       </c>
@@ -4388,7 +4723,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -4398,6 +4733,9 @@
       <c r="C117">
         <v>0.14176</v>
       </c>
+      <c r="D117">
+        <v>6.7589999999999997E-2</v>
+      </c>
       <c r="E117">
         <v>12.397</v>
       </c>
@@ -4411,7 +4749,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -4421,6 +4759,9 @@
       <c r="C118">
         <v>0.30913000000000002</v>
       </c>
+      <c r="D118">
+        <v>0.13458000000000001</v>
+      </c>
       <c r="E118">
         <v>16.785</v>
       </c>
@@ -4434,7 +4775,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>105</v>
       </c>
@@ -4444,6 +4785,9 @@
       <c r="C119">
         <v>0.27133000000000002</v>
       </c>
+      <c r="D119">
+        <v>0.12041</v>
+      </c>
       <c r="E119">
         <v>16.181999999999999</v>
       </c>
@@ -4457,7 +4801,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>106</v>
       </c>
@@ -4467,6 +4811,9 @@
       <c r="C120">
         <v>5.8209999999999998E-2</v>
       </c>
+      <c r="D120">
+        <v>2.8809999999999999E-2</v>
+      </c>
       <c r="E120">
         <v>5.1840000000000002</v>
       </c>
@@ -4480,7 +4827,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -4490,6 +4837,9 @@
       <c r="C121">
         <v>6.3659999999999994E-2</v>
       </c>
+      <c r="D121">
+        <v>3.4540000000000001E-2</v>
+      </c>
       <c r="E121">
         <v>5.3140000000000001</v>
       </c>
@@ -4503,7 +4853,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>108</v>
       </c>
@@ -4513,6 +4863,9 @@
       <c r="C122">
         <v>0.11948</v>
       </c>
+      <c r="D122">
+        <v>5.8130000000000001E-2</v>
+      </c>
       <c r="E122">
         <v>10.462</v>
       </c>
@@ -4526,7 +4879,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>109</v>
       </c>
@@ -4536,6 +4889,9 @@
       <c r="C123">
         <v>0.12501999999999999</v>
       </c>
+      <c r="D123">
+        <v>6.0170000000000001E-2</v>
+      </c>
       <c r="E123">
         <v>11.499000000000001</v>
       </c>
@@ -4549,7 +4905,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>112</v>
       </c>
@@ -4559,6 +4915,9 @@
       <c r="C124">
         <v>7.3039999999999994E-2</v>
       </c>
+      <c r="D124">
+        <v>2.913E-2</v>
+      </c>
       <c r="E124">
         <v>4.4160000000000004</v>
       </c>
@@ -4572,7 +4931,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>113</v>
       </c>
@@ -4582,6 +4941,9 @@
       <c r="C125">
         <v>0.10188999999999999</v>
       </c>
+      <c r="D125">
+        <v>4.6809999999999997E-2</v>
+      </c>
       <c r="E125">
         <v>5.7190000000000003</v>
       </c>
@@ -4595,7 +4957,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>114</v>
       </c>
@@ -4605,6 +4967,9 @@
       <c r="C126">
         <v>9.9199999999999997E-2</v>
       </c>
+      <c r="D126">
+        <v>4.8030000000000003E-2</v>
+      </c>
       <c r="E126">
         <v>6.6849999999999996</v>
       </c>
@@ -4618,7 +4983,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -4628,6 +4993,9 @@
       <c r="C127">
         <v>8.9429999999999996E-2</v>
       </c>
+      <c r="D127">
+        <v>3.8960000000000002E-2</v>
+      </c>
       <c r="E127">
         <v>6.4809999999999999</v>
       </c>
@@ -4641,7 +5009,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>116</v>
       </c>
@@ -4651,6 +5019,9 @@
       <c r="C128">
         <v>0.13411000000000001</v>
       </c>
+      <c r="D128">
+        <v>6.7309999999999995E-2</v>
+      </c>
       <c r="E128">
         <v>10.91</v>
       </c>
@@ -4664,7 +5035,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>117</v>
       </c>
@@ -4674,6 +5045,9 @@
       <c r="C129">
         <v>9.2689999999999995E-2</v>
       </c>
+      <c r="D129">
+        <v>4.7820000000000001E-2</v>
+      </c>
       <c r="E129">
         <v>6.4080000000000004</v>
       </c>
@@ -4687,7 +5061,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -4697,6 +5071,9 @@
       <c r="C130">
         <v>0.12648000000000001</v>
       </c>
+      <c r="D130">
+        <v>5.5399999999999998E-2</v>
+      </c>
       <c r="E130">
         <v>8.1270000000000007</v>
       </c>
@@ -4710,7 +5087,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>119</v>
       </c>
@@ -4720,6 +5097,9 @@
       <c r="C131">
         <v>8.5650000000000004E-2</v>
       </c>
+      <c r="D131">
+        <v>3.5369999999999999E-2</v>
+      </c>
       <c r="E131">
         <v>5.84</v>
       </c>
@@ -4733,7 +5113,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>120</v>
       </c>
@@ -4743,6 +5123,9 @@
       <c r="C132">
         <v>0.16650999999999999</v>
       </c>
+      <c r="D132">
+        <v>8.7050000000000002E-2</v>
+      </c>
       <c r="E132">
         <v>15.6</v>
       </c>
@@ -4756,7 +5139,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -4766,6 +5149,9 @@
       <c r="C133">
         <v>0.1104</v>
       </c>
+      <c r="D133">
+        <v>5.3830000000000003E-2</v>
+      </c>
       <c r="E133">
         <v>10.901</v>
       </c>
@@ -4779,7 +5165,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -4789,6 +5175,9 @@
       <c r="C134">
         <v>0.1052</v>
       </c>
+      <c r="D134">
+        <v>5.0729999999999997E-2</v>
+      </c>
       <c r="E134">
         <v>10.035</v>
       </c>
@@ -4802,7 +5191,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -4812,6 +5201,9 @@
       <c r="C135">
         <v>0.11035</v>
       </c>
+      <c r="D135">
+        <v>5.3010000000000002E-2</v>
+      </c>
       <c r="E135">
         <v>9.2840000000000007</v>
       </c>
@@ -4825,7 +5217,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -4835,6 +5227,9 @@
       <c r="C136">
         <v>0.13261999999999999</v>
       </c>
+      <c r="D136">
+        <v>5.944E-2</v>
+      </c>
       <c r="E136">
         <v>7.1509999999999998</v>
       </c>
@@ -4848,7 +5243,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -4858,6 +5253,9 @@
       <c r="C137">
         <v>0.11586</v>
       </c>
+      <c r="D137">
+        <v>5.0930000000000003E-2</v>
+      </c>
       <c r="E137">
         <v>6.5629999999999997</v>
       </c>
@@ -4871,7 +5269,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -4881,6 +5279,9 @@
       <c r="C138">
         <v>7.2609999999999994E-2</v>
       </c>
+      <c r="D138">
+        <v>3.712E-2</v>
+      </c>
       <c r="E138">
         <v>6.7809999999999997</v>
       </c>
@@ -4894,7 +5295,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -4904,6 +5305,9 @@
       <c r="C139">
         <v>0.25452999999999998</v>
       </c>
+      <c r="D139">
+        <v>0.12637000000000001</v>
+      </c>
       <c r="E139">
         <v>20.452999999999999</v>
       </c>
@@ -4917,7 +5321,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -4927,6 +5331,9 @@
       <c r="C140">
         <v>0.71499999999999997</v>
       </c>
+      <c r="D140">
+        <v>0.26358999999999999</v>
+      </c>
       <c r="E140">
         <v>31.053999999999998</v>
       </c>
@@ -4940,7 +5347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -4950,6 +5357,9 @@
       <c r="C141">
         <v>1.427</v>
       </c>
+      <c r="D141">
+        <v>0.57381000000000004</v>
+      </c>
       <c r="E141">
         <v>53.526000000000003</v>
       </c>
@@ -4963,7 +5373,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -4973,6 +5383,9 @@
       <c r="C142">
         <v>0.10492</v>
       </c>
+      <c r="D142">
+        <v>5.3609999999999998E-2</v>
+      </c>
       <c r="E142">
         <v>8.6219999999999999</v>
       </c>
@@ -4986,7 +5399,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -4996,6 +5409,9 @@
       <c r="C143">
         <v>0.10326</v>
       </c>
+      <c r="D143">
+        <v>5.4019999999999999E-2</v>
+      </c>
       <c r="E143">
         <v>9.032</v>
       </c>
@@ -5009,7 +5425,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -5019,6 +5435,9 @@
       <c r="C144">
         <v>8.4599999999999995E-2</v>
       </c>
+      <c r="D144">
+        <v>3.6170000000000001E-2</v>
+      </c>
       <c r="E144">
         <v>9.4480000000000004</v>
       </c>
@@ -5032,7 +5451,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -5042,6 +5461,9 @@
       <c r="C145">
         <v>0.1196</v>
       </c>
+      <c r="D145">
+        <v>5.144E-2</v>
+      </c>
       <c r="E145">
         <v>10.92</v>
       </c>
@@ -5055,7 +5477,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -5065,6 +5487,9 @@
       <c r="C146">
         <v>0.56000000000000005</v>
       </c>
+      <c r="D146">
+        <v>0.21948000000000001</v>
+      </c>
       <c r="E146">
         <v>28.036999999999999</v>
       </c>
@@ -5078,7 +5503,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>135</v>
       </c>
@@ -5088,6 +5513,9 @@
       <c r="C147">
         <v>0.26007999999999998</v>
       </c>
+      <c r="D147">
+        <v>9.9320000000000006E-2</v>
+      </c>
       <c r="E147">
         <v>13.124000000000001</v>
       </c>
@@ -5101,7 +5529,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>136</v>
       </c>
@@ -5111,6 +5539,9 @@
       <c r="C148">
         <v>0.35360000000000003</v>
       </c>
+      <c r="D148">
+        <v>0.14699000000000001</v>
+      </c>
       <c r="E148">
         <v>20.231000000000002</v>
       </c>
@@ -5124,7 +5555,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>137</v>
       </c>
@@ -5134,6 +5565,9 @@
       <c r="C149">
         <v>0.40026</v>
       </c>
+      <c r="D149">
+        <v>0.16902</v>
+      </c>
       <c r="E149">
         <v>22.033999999999999</v>
       </c>
@@ -5147,7 +5581,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>138</v>
       </c>
@@ -5157,6 +5591,9 @@
       <c r="C150">
         <v>0.22070000000000001</v>
       </c>
+      <c r="D150">
+        <v>0.11471000000000001</v>
+      </c>
       <c r="E150">
         <v>16.803999999999998</v>
       </c>
@@ -5170,7 +5607,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>139</v>
       </c>
@@ -5180,6 +5617,9 @@
       <c r="C151">
         <v>0.12300999999999999</v>
       </c>
+      <c r="D151">
+        <v>6.5909999999999996E-2</v>
+      </c>
       <c r="E151">
         <v>9.9529999999999994</v>
       </c>
@@ -5193,7 +5633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>140</v>
       </c>
@@ -5203,6 +5643,9 @@
       <c r="C152">
         <v>0.12570000000000001</v>
       </c>
+      <c r="D152">
+        <v>6.4100000000000004E-2</v>
+      </c>
       <c r="E152">
         <v>11.532</v>
       </c>
@@ -5216,7 +5659,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>141</v>
       </c>
@@ -5226,6 +5669,9 @@
       <c r="C153">
         <v>0.14523</v>
       </c>
+      <c r="D153">
+        <v>7.4529999999999999E-2</v>
+      </c>
       <c r="E153">
         <v>12.379</v>
       </c>
@@ -5239,7 +5685,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>142</v>
       </c>
@@ -5249,6 +5695,9 @@
       <c r="C154">
         <v>0.11271</v>
       </c>
+      <c r="D154">
+        <v>4.6789999999999998E-2</v>
+      </c>
       <c r="E154">
         <v>8.0239999999999991</v>
       </c>
@@ -5262,7 +5711,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>143</v>
       </c>
@@ -5272,6 +5721,9 @@
       <c r="C155">
         <v>6.0699999999999997E-2</v>
       </c>
+      <c r="D155">
+        <v>2.6540000000000001E-2</v>
+      </c>
       <c r="E155">
         <v>4.8109999999999999</v>
       </c>
@@ -5285,7 +5737,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>144</v>
       </c>
@@ -5295,6 +5747,9 @@
       <c r="C156">
         <v>0.21149999999999999</v>
       </c>
+      <c r="D156">
+        <v>0.10165</v>
+      </c>
       <c r="E156">
         <v>17.167000000000002</v>
       </c>
@@ -5308,7 +5763,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>145</v>
       </c>
@@ -5318,6 +5773,9 @@
       <c r="C157">
         <v>0.2233</v>
       </c>
+      <c r="D157">
+        <v>0.11728</v>
+      </c>
       <c r="E157">
         <v>19.425000000000001</v>
       </c>
@@ -5331,7 +5789,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>146</v>
       </c>
@@ -5341,6 +5799,9 @@
       <c r="C158">
         <v>7.2539999999999993E-2</v>
       </c>
+      <c r="D158">
+        <v>3.6409999999999998E-2</v>
+      </c>
       <c r="E158">
         <v>6.4180000000000001</v>
       </c>
@@ -5354,7 +5815,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -5364,6 +5825,9 @@
       <c r="C159">
         <v>0.10267999999999999</v>
       </c>
+      <c r="D159">
+        <v>5.042E-2</v>
+      </c>
       <c r="E159">
         <v>7.9370000000000003</v>
       </c>
@@ -5377,7 +5841,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -5387,6 +5851,9 @@
       <c r="C160">
         <v>0.76119999999999999</v>
       </c>
+      <c r="D160">
+        <v>0.29931000000000002</v>
+      </c>
       <c r="E160">
         <v>28.759</v>
       </c>
@@ -5400,7 +5867,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -5410,6 +5877,9 @@
       <c r="C161">
         <v>0.66349999999999998</v>
       </c>
+      <c r="D161">
+        <v>0.23973</v>
+      </c>
       <c r="E161">
         <v>26.157</v>
       </c>
@@ -5423,7 +5893,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>150</v>
       </c>
@@ -5433,6 +5903,9 @@
       <c r="C162">
         <v>0.21026</v>
       </c>
+      <c r="D162">
+        <v>0.10281999999999999</v>
+      </c>
       <c r="E162">
         <v>18.433</v>
       </c>
@@ -5446,7 +5919,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -5456,6 +5929,9 @@
       <c r="C163">
         <v>0.21942999999999999</v>
       </c>
+      <c r="D163">
+        <v>0.11031000000000001</v>
+      </c>
       <c r="E163">
         <v>18.765000000000001</v>
       </c>
@@ -5469,7 +5945,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -5479,6 +5955,9 @@
       <c r="C164">
         <v>0.10221</v>
       </c>
+      <c r="D164">
+        <v>4.632E-2</v>
+      </c>
       <c r="E164">
         <v>5.68</v>
       </c>
@@ -5492,7 +5971,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -5502,6 +5981,9 @@
       <c r="C165">
         <v>9.2950000000000005E-2</v>
       </c>
+      <c r="D165">
+        <v>4.0640000000000003E-2</v>
+      </c>
       <c r="E165">
         <v>6.0449999999999999</v>
       </c>
@@ -5515,7 +5997,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>154</v>
       </c>
@@ -5525,6 +6007,9 @@
       <c r="C166">
         <v>0.12859999999999999</v>
       </c>
+      <c r="D166">
+        <v>6.2280000000000002E-2</v>
+      </c>
       <c r="E166">
         <v>11.074</v>
       </c>
@@ -5538,7 +6023,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>155</v>
       </c>
@@ -5548,6 +6033,9 @@
       <c r="C167">
         <v>0.11626</v>
       </c>
+      <c r="D167">
+        <v>5.953E-2</v>
+      </c>
       <c r="E167">
         <v>9.8580000000000005</v>
       </c>
@@ -5561,7 +6049,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>156</v>
       </c>
@@ -5571,6 +6059,9 @@
       <c r="C168">
         <v>0.16026000000000001</v>
       </c>
+      <c r="D168">
+        <v>7.7149999999999996E-2</v>
+      </c>
       <c r="E168">
         <v>11.48</v>
       </c>
@@ -5584,7 +6075,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>157</v>
       </c>
@@ -5594,6 +6085,9 @@
       <c r="C169">
         <v>0.16427</v>
       </c>
+      <c r="D169">
+        <v>7.9729999999999995E-2</v>
+      </c>
       <c r="E169">
         <v>12.228999999999999</v>
       </c>
@@ -5607,7 +6101,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>158</v>
       </c>
@@ -5617,6 +6111,9 @@
       <c r="C170">
         <v>0.12485</v>
       </c>
+      <c r="D170">
+        <v>6.7089999999999997E-2</v>
+      </c>
       <c r="E170">
         <v>9.7070000000000007</v>
       </c>
@@ -5630,7 +6127,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -5640,6 +6137,9 @@
       <c r="C171">
         <v>9.3310000000000004E-2</v>
       </c>
+      <c r="D171">
+        <v>5.0869999999999999E-2</v>
+      </c>
       <c r="E171">
         <v>7.2439999999999998</v>
       </c>
@@ -5653,7 +6153,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>110</v>
       </c>
@@ -5663,6 +6163,9 @@
       <c r="C172">
         <v>0.113</v>
       </c>
+      <c r="D172">
+        <v>5.8779999999999999E-2</v>
+      </c>
       <c r="E172">
         <v>10.608000000000001</v>
       </c>
@@ -5676,7 +6179,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>111</v>
       </c>
@@ -5686,6 +6189,9 @@
       <c r="C173">
         <v>8.1350000000000006E-2</v>
       </c>
+      <c r="D173">
+        <v>3.9919999999999997E-2</v>
+      </c>
       <c r="E173">
         <v>8.2560000000000002</v>
       </c>
@@ -5699,7 +6205,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>160</v>
       </c>
@@ -5709,6 +6215,9 @@
       <c r="C174">
         <v>6.9510000000000002E-2</v>
       </c>
+      <c r="D174">
+        <v>2.8139999999999998E-2</v>
+      </c>
       <c r="E174">
         <v>4.6669999999999998</v>
       </c>
@@ -5722,7 +6231,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>161</v>
       </c>
@@ -5732,6 +6241,9 @@
       <c r="C175">
         <v>0.15479000000000001</v>
       </c>
+      <c r="D175">
+        <v>6.9830000000000003E-2</v>
+      </c>
       <c r="E175">
         <v>7.8920000000000003</v>
       </c>
@@ -5745,7 +6257,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>162</v>
       </c>
@@ -5755,6 +6267,9 @@
       <c r="C176">
         <v>0.17860000000000001</v>
       </c>
+      <c r="D176">
+        <v>5.6919999999999998E-2</v>
+      </c>
       <c r="E176">
         <v>12.068</v>
       </c>
@@ -5768,7 +6283,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>163</v>
       </c>
@@ -5778,6 +6293,9 @@
       <c r="C177">
         <v>0.16946</v>
       </c>
+      <c r="D177">
+        <v>6.1800000000000001E-2</v>
+      </c>
       <c r="E177">
         <v>10.147</v>
       </c>
@@ -5791,7 +6309,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>164</v>
       </c>
@@ -5801,6 +6319,9 @@
       <c r="C178">
         <v>0.14510000000000001</v>
       </c>
+      <c r="D178">
+        <v>7.6100000000000001E-2</v>
+      </c>
       <c r="E178">
         <v>12.805999999999999</v>
       </c>
@@ -5814,7 +6335,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>165</v>
       </c>
@@ -5824,6 +6345,9 @@
       <c r="C179">
         <v>0.12021999999999999</v>
       </c>
+      <c r="D179">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="E179">
         <v>10.098000000000001</v>
       </c>
@@ -5837,7 +6361,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -5847,6 +6371,9 @@
       <c r="C180">
         <v>0.7823</v>
       </c>
+      <c r="D180">
+        <v>0.3216</v>
+      </c>
       <c r="E180">
         <v>34.113999999999997</v>
       </c>
@@ -5860,7 +6387,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>167</v>
       </c>
@@ -5870,6 +6397,9 @@
       <c r="C181">
         <v>0.58450000000000002</v>
       </c>
+      <c r="D181">
+        <v>0.22073999999999999</v>
+      </c>
       <c r="E181">
         <v>29.297000000000001</v>
       </c>
@@ -5883,7 +6413,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>96</v>
       </c>
@@ -5893,6 +6423,9 @@
       <c r="C182">
         <v>0.13058</v>
       </c>
+      <c r="D182">
+        <v>6.2880000000000005E-2</v>
+      </c>
       <c r="E182">
         <v>10.72</v>
       </c>
@@ -5906,7 +6439,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>97</v>
       </c>
@@ -5916,6 +6449,9 @@
       <c r="C183">
         <v>0.13117000000000001</v>
       </c>
+      <c r="D183">
+        <v>6.0519999999999997E-2</v>
+      </c>
       <c r="E183">
         <v>12.086</v>
       </c>
@@ -5929,7 +6465,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -5939,6 +6475,9 @@
       <c r="C184">
         <v>0.68</v>
       </c>
+      <c r="D184">
+        <v>0.28276000000000001</v>
+      </c>
       <c r="E184">
         <v>29.824999999999999</v>
       </c>
@@ -5952,7 +6491,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -5962,6 +6501,9 @@
       <c r="C185">
         <v>0.63260000000000005</v>
       </c>
+      <c r="D185">
+        <v>0.25889000000000001</v>
+      </c>
       <c r="E185">
         <v>28.699000000000002</v>
       </c>
@@ -5975,7 +6517,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -5985,6 +6527,9 @@
       <c r="C186">
         <v>2.8809999999999998</v>
       </c>
+      <c r="D186">
+        <v>1.16543</v>
+      </c>
       <c r="E186">
         <v>224.86600000000001</v>
       </c>
@@ -5998,7 +6543,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>44</v>
       </c>
@@ -6008,6 +6553,9 @@
       <c r="C187">
         <v>1.1798500000000001</v>
       </c>
+      <c r="D187">
+        <v>0.50502999999999998</v>
+      </c>
       <c r="E187">
         <v>45.609000000000002</v>
       </c>
@@ -6021,7 +6569,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -6031,6 +6579,9 @@
       <c r="C188">
         <v>0.86826000000000003</v>
       </c>
+      <c r="D188">
+        <v>0.4299</v>
+      </c>
       <c r="E188">
         <v>49.514000000000003</v>
       </c>
@@ -6044,7 +6595,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>50</v>
       </c>
@@ -6054,6 +6605,9 @@
       <c r="C189">
         <v>0.84819</v>
       </c>
+      <c r="D189">
+        <v>0.42109999999999997</v>
+      </c>
       <c r="E189">
         <v>46.883000000000003</v>
       </c>
@@ -6067,7 +6621,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>182</v>
       </c>
@@ -6077,6 +6631,9 @@
       <c r="C190">
         <v>0.97799999999999998</v>
       </c>
+      <c r="D190">
+        <v>0.43140000000000001</v>
+      </c>
       <c r="E190">
         <v>50.216000000000001</v>
       </c>
@@ -6090,7 +6647,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -6100,6 +6657,9 @@
       <c r="C191">
         <v>0.38017000000000001</v>
       </c>
+      <c r="D191">
+        <v>0.16894000000000001</v>
+      </c>
       <c r="E191">
         <v>20.59</v>
       </c>
@@ -6113,7 +6673,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -6123,6 +6683,9 @@
       <c r="C192">
         <v>0.56628999999999996</v>
       </c>
+      <c r="D192">
+        <v>0.28764000000000001</v>
+      </c>
       <c r="E192">
         <v>36.639000000000003</v>
       </c>
@@ -6136,7 +6699,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>171</v>
       </c>
@@ -6146,6 +6709,9 @@
       <c r="C193">
         <v>0.40533000000000002</v>
       </c>
+      <c r="D193">
+        <v>0.19836000000000001</v>
+      </c>
       <c r="E193">
         <v>26.262</v>
       </c>
@@ -6159,7 +6725,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>172</v>
       </c>
@@ -6169,6 +6735,9 @@
       <c r="C194">
         <v>0.44356000000000001</v>
       </c>
+      <c r="D194">
+        <v>0.25217000000000001</v>
+      </c>
       <c r="E194">
         <v>24.259</v>
       </c>
@@ -6182,7 +6751,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -6192,6 +6761,9 @@
       <c r="C195">
         <v>0.48288999999999999</v>
       </c>
+      <c r="D195">
+        <v>0.27079999999999999</v>
+      </c>
       <c r="E195">
         <v>24.370999999999999</v>
       </c>
@@ -6205,7 +6777,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>68</v>
       </c>
@@ -6215,6 +6787,9 @@
       <c r="C196">
         <v>4.7419999999999997E-2</v>
       </c>
+      <c r="D196">
+        <v>3.3079999999999998E-2</v>
+      </c>
       <c r="E196">
         <v>3.8450000000000002</v>
       </c>
@@ -6228,7 +6803,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>69</v>
       </c>
@@ -6238,6 +6813,9 @@
       <c r="C197">
         <v>8.2680000000000003E-2</v>
       </c>
+      <c r="D197">
+        <v>5.4670000000000003E-2</v>
+      </c>
       <c r="E197">
         <v>6.1130000000000004</v>
       </c>
@@ -6251,7 +6829,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>64</v>
       </c>
@@ -6261,6 +6839,9 @@
       <c r="C198">
         <v>1.39897</v>
       </c>
+      <c r="D198">
+        <v>0.62702999999999998</v>
+      </c>
       <c r="E198">
         <v>79.046000000000006</v>
       </c>
@@ -6274,7 +6855,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>65</v>
       </c>
@@ -6284,6 +6865,9 @@
       <c r="C199">
         <v>1.0271399999999999</v>
       </c>
+      <c r="D199">
+        <v>0.46517999999999998</v>
+      </c>
       <c r="E199">
         <v>66.66</v>
       </c>
@@ -6297,7 +6881,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>174</v>
       </c>
@@ -6307,6 +6891,9 @@
       <c r="C200">
         <v>1.1123400000000001</v>
       </c>
+      <c r="D200">
+        <v>0.51305999999999996</v>
+      </c>
       <c r="E200">
         <v>63.381</v>
       </c>
@@ -6320,7 +6907,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>175</v>
       </c>
@@ -6330,6 +6917,9 @@
       <c r="C201">
         <v>1.06484</v>
       </c>
+      <c r="D201">
+        <v>0.50753000000000004</v>
+      </c>
       <c r="E201">
         <v>61.177999999999997</v>
       </c>
@@ -6343,7 +6933,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>176</v>
       </c>
@@ -6353,6 +6943,9 @@
       <c r="C202">
         <v>0.82925000000000004</v>
       </c>
+      <c r="D202">
+        <v>0.37390000000000001</v>
+      </c>
       <c r="E202">
         <v>53.454000000000001</v>
       </c>
@@ -6366,7 +6959,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>177</v>
       </c>
@@ -6376,6 +6969,9 @@
       <c r="C203">
         <v>1.30263</v>
       </c>
+      <c r="D203">
+        <v>0.59167000000000003</v>
+      </c>
       <c r="E203">
         <v>75.102000000000004</v>
       </c>
@@ -6389,7 +6985,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>178</v>
       </c>
@@ -6399,6 +6995,9 @@
       <c r="C204">
         <v>0.83720000000000006</v>
       </c>
+      <c r="D204">
+        <v>0.38984999999999997</v>
+      </c>
       <c r="E204">
         <v>51.2</v>
       </c>
@@ -6412,7 +7011,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>179</v>
       </c>
@@ -6422,6 +7021,9 @@
       <c r="C205">
         <v>0.89978999999999998</v>
       </c>
+      <c r="D205">
+        <v>0.41864000000000001</v>
+      </c>
       <c r="E205">
         <v>51.378</v>
       </c>
@@ -6435,7 +7037,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>72</v>
       </c>
@@ -6445,6 +7047,9 @@
       <c r="C206">
         <v>0.13481000000000001</v>
       </c>
+      <c r="D206">
+        <v>6.8430000000000005E-2</v>
+      </c>
       <c r="E206">
         <v>11.686</v>
       </c>
@@ -6458,7 +7063,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>73</v>
       </c>
@@ -6468,6 +7073,9 @@
       <c r="C207">
         <v>0.18634999999999999</v>
       </c>
+      <c r="D207">
+        <v>9.493E-2</v>
+      </c>
       <c r="E207">
         <v>14.164</v>
       </c>
@@ -6481,7 +7089,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>180</v>
       </c>
@@ -6489,7 +7097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>181</v>
       </c>
@@ -6497,7 +7105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>78</v>
       </c>
@@ -6507,6 +7115,9 @@
       <c r="C210">
         <v>0.37084</v>
       </c>
+      <c r="D210">
+        <v>0.17065</v>
+      </c>
       <c r="E210">
         <v>24.2</v>
       </c>
@@ -6520,7 +7131,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>79</v>
       </c>
@@ -6530,6 +7141,9 @@
       <c r="C211">
         <v>0.41006999999999999</v>
       </c>
+      <c r="D211">
+        <v>0.19</v>
+      </c>
       <c r="E211">
         <v>29.038</v>
       </c>
@@ -6543,7 +7157,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>184</v>
       </c>
@@ -6553,6 +7167,9 @@
       <c r="C212">
         <v>0.5736</v>
       </c>
+      <c r="D212">
+        <v>0.25320999999999999</v>
+      </c>
       <c r="E212">
         <v>32.206000000000003</v>
       </c>
@@ -6566,7 +7183,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>185</v>
       </c>
@@ -6576,6 +7193,9 @@
       <c r="C213">
         <v>0.64300000000000002</v>
       </c>
+      <c r="D213">
+        <v>0.28188000000000002</v>
+      </c>
       <c r="E213">
         <v>39.091999999999999</v>
       </c>
@@ -6589,7 +7209,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>186</v>
       </c>
@@ -6599,6 +7219,9 @@
       <c r="C214">
         <v>1.3179000000000001</v>
       </c>
+      <c r="D214">
+        <v>0.71986000000000006</v>
+      </c>
       <c r="E214">
         <v>55.076999999999998</v>
       </c>
@@ -6612,7 +7235,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -6622,6 +7245,9 @@
       <c r="C215">
         <v>0.95957999999999999</v>
       </c>
+      <c r="D215">
+        <v>0.46994000000000002</v>
+      </c>
       <c r="E215">
         <v>38.618000000000002</v>
       </c>
@@ -6635,7 +7261,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>188</v>
       </c>
@@ -6645,6 +7271,9 @@
       <c r="C216">
         <v>1.43283</v>
       </c>
+      <c r="D216">
+        <v>0.75861999999999996</v>
+      </c>
       <c r="E216">
         <v>75.527000000000001</v>
       </c>
@@ -6658,7 +7287,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>189</v>
       </c>
@@ -6668,6 +7297,9 @@
       <c r="C217">
         <v>1.61303</v>
       </c>
+      <c r="D217">
+        <v>0.86739999999999995</v>
+      </c>
       <c r="E217">
         <v>91.314999999999998</v>
       </c>
@@ -6681,631 +7313,2035 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>5</v>
       </c>
       <c r="B218">
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" hidden="1">
+      <c r="C218">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D218">
+        <v>0.15926000000000001</v>
+      </c>
+      <c r="E218">
+        <v>27.736999999999998</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>6</v>
       </c>
       <c r="B219">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" hidden="1">
+      <c r="C219">
+        <v>0.66</v>
+      </c>
+      <c r="D219">
+        <v>0.26008999999999999</v>
+      </c>
+      <c r="E219">
+        <v>43.256999999999998</v>
+      </c>
+      <c r="F219">
+        <v>1E-3</v>
+      </c>
+      <c r="G219">
+        <v>1E-3</v>
+      </c>
+      <c r="H219">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>37</v>
       </c>
       <c r="B220">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" hidden="1">
+      <c r="C220">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D220">
+        <v>0.10778</v>
+      </c>
+      <c r="E220">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="F220">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G220">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H220">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>38</v>
       </c>
       <c r="B221">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" hidden="1">
+      <c r="C221">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D221">
+        <v>0.1532</v>
+      </c>
+      <c r="E221">
+        <v>11.975</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>190</v>
       </c>
       <c r="B222">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" hidden="1">
+      <c r="C222" t="s">
+        <v>472</v>
+      </c>
+      <c r="D222" t="s">
+        <v>472</v>
+      </c>
+      <c r="E222" t="s">
+        <v>472</v>
+      </c>
+      <c r="F222" t="s">
+        <v>472</v>
+      </c>
+      <c r="G222" t="s">
+        <v>472</v>
+      </c>
+      <c r="H222" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>191</v>
       </c>
       <c r="B223">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" hidden="1">
+      <c r="C223" t="s">
+        <v>472</v>
+      </c>
+      <c r="D223" t="s">
+        <v>472</v>
+      </c>
+      <c r="E223" t="s">
+        <v>472</v>
+      </c>
+      <c r="F223" t="s">
+        <v>472</v>
+      </c>
+      <c r="G223" t="s">
+        <v>472</v>
+      </c>
+      <c r="H223" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>47</v>
       </c>
       <c r="B224">
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" hidden="1">
+      <c r="C224">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D224">
+        <v>0.11107</v>
+      </c>
+      <c r="E224">
+        <v>17.428999999999998</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1E-3</v>
+      </c>
+      <c r="H224">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>48</v>
       </c>
       <c r="B225">
         <v>6</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" hidden="1">
+      <c r="C225">
+        <v>0.308</v>
+      </c>
+      <c r="D225">
+        <v>0.13397000000000001</v>
+      </c>
+      <c r="E225">
+        <v>20.266999999999999</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>1E-3</v>
+      </c>
+      <c r="H225">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>45</v>
       </c>
       <c r="B226">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1">
+      <c r="C226">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D226">
+        <v>0.29121999999999998</v>
+      </c>
+      <c r="E226">
+        <v>40.756999999999998</v>
+      </c>
+      <c r="F226">
+        <v>1E-3</v>
+      </c>
+      <c r="G226">
+        <v>2E-3</v>
+      </c>
+      <c r="H226">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>46</v>
       </c>
       <c r="B227">
         <v>6</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1">
+      <c r="C227">
+        <v>0.92</v>
+      </c>
+      <c r="D227">
+        <v>0.39834000000000003</v>
+      </c>
+      <c r="E227">
+        <v>51.969000000000001</v>
+      </c>
+      <c r="F227">
+        <v>0.182</v>
+      </c>
+      <c r="G227">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H227">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>192</v>
       </c>
       <c r="B228">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1">
+      <c r="C228">
+        <v>1.76</v>
+      </c>
+      <c r="D228">
+        <v>0.69638999999999995</v>
+      </c>
+      <c r="E228">
+        <v>89.49</v>
+      </c>
+      <c r="F228">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G228">
+        <v>0.308</v>
+      </c>
+      <c r="H228">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>193</v>
       </c>
       <c r="B229">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1">
+      <c r="C229">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="D229">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="E229">
+        <v>111.899</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>194</v>
       </c>
       <c r="B230">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" hidden="1">
+      <c r="C230">
+        <v>1.073</v>
+      </c>
+      <c r="D230">
+        <v>0.38673999999999997</v>
+      </c>
+      <c r="E230">
+        <v>55.429000000000002</v>
+      </c>
+      <c r="F230">
+        <v>1E-3</v>
+      </c>
+      <c r="G230">
+        <v>2E-3</v>
+      </c>
+      <c r="H230">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>195</v>
       </c>
       <c r="B231">
         <v>6</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1">
+      <c r="C231">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="D231">
+        <v>0.45249</v>
+      </c>
+      <c r="E231">
+        <v>61.533999999999999</v>
+      </c>
+      <c r="F231">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G231">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H231">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>196</v>
       </c>
       <c r="B232">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" hidden="1">
+      <c r="C232">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D232">
+        <v>0.35381000000000001</v>
+      </c>
+      <c r="E232">
+        <v>47.122</v>
+      </c>
+      <c r="F232">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G232">
+        <v>0.159</v>
+      </c>
+      <c r="H232">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>197</v>
       </c>
       <c r="B233">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" hidden="1">
+      <c r="C233">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="D233">
+        <v>0.38991999999999999</v>
+      </c>
+      <c r="E233">
+        <v>45.18</v>
+      </c>
+      <c r="F233">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G233">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="H233">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>78</v>
       </c>
       <c r="B234">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" hidden="1">
+      <c r="C234">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D234">
+        <v>0.12123</v>
+      </c>
+      <c r="E234">
+        <v>15.794</v>
+      </c>
+      <c r="F234">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G234">
+        <v>0.184</v>
+      </c>
+      <c r="H234">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>79</v>
       </c>
       <c r="B235">
         <v>6</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1">
+      <c r="C235">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D235">
+        <v>0.12998000000000001</v>
+      </c>
+      <c r="E235">
+        <v>14.736000000000001</v>
+      </c>
+      <c r="F235">
+        <v>0.183</v>
+      </c>
+      <c r="G235">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="H235">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>172</v>
       </c>
       <c r="B236">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" hidden="1">
+      <c r="C236">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D236">
+        <v>0.10501000000000001</v>
+      </c>
+      <c r="E236">
+        <v>11.33</v>
+      </c>
+      <c r="F236">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G236">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H236">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>173</v>
       </c>
       <c r="B237">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" hidden="1">
+      <c r="C237">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D237">
+        <v>0.11761000000000001</v>
+      </c>
+      <c r="E237">
+        <v>13.943</v>
+      </c>
+      <c r="F237">
+        <v>0.435</v>
+      </c>
+      <c r="G237">
+        <v>3.121</v>
+      </c>
+      <c r="H237">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>198</v>
       </c>
       <c r="B238">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" hidden="1">
+      <c r="C238">
+        <v>0.32</v>
+      </c>
+      <c r="D238">
+        <v>0.13114999999999999</v>
+      </c>
+      <c r="E238">
+        <v>23.236999999999998</v>
+      </c>
+      <c r="F238">
+        <v>1E-3</v>
+      </c>
+      <c r="G238">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H238">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>199</v>
       </c>
       <c r="B239">
         <v>6</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" hidden="1">
+      <c r="C239">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D239">
+        <v>0.19384000000000001</v>
+      </c>
+      <c r="E239">
+        <v>33.680999999999997</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>1E-3</v>
+      </c>
+      <c r="H239">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>200</v>
       </c>
       <c r="B240">
         <v>6</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" hidden="1">
+      <c r="C240">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D240">
+        <v>0.1321</v>
+      </c>
+      <c r="E240">
+        <v>21.704999999999998</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>201</v>
       </c>
       <c r="B241">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1">
+      <c r="C241">
+        <v>0.311</v>
+      </c>
+      <c r="D241">
+        <v>0.12533</v>
+      </c>
+      <c r="E241">
+        <v>22.742999999999999</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>202</v>
       </c>
       <c r="B242">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" hidden="1">
+      <c r="C242">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D242">
+        <v>9.2939999999999995E-2</v>
+      </c>
+      <c r="E242">
+        <v>14.955</v>
+      </c>
+      <c r="F242">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G242">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H242">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>203</v>
       </c>
       <c r="B243">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" hidden="1">
+      <c r="C243">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D243">
+        <v>0.10985</v>
+      </c>
+      <c r="E243">
+        <v>16.359000000000002</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>29</v>
       </c>
       <c r="B244">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1">
+      <c r="C244">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D244">
+        <v>0.11007</v>
+      </c>
+      <c r="E244">
+        <v>20.175999999999998</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1E-3</v>
+      </c>
+      <c r="H244">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>30</v>
       </c>
       <c r="B245">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" hidden="1">
+      <c r="C245">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D245">
+        <v>0.13396</v>
+      </c>
+      <c r="E245">
+        <v>24.512</v>
+      </c>
+      <c r="F245">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G245">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H245">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>204</v>
       </c>
       <c r="B246">
         <v>6</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" hidden="1">
+      <c r="C246">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D246">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="E246">
+        <v>34.811</v>
+      </c>
+      <c r="F246">
+        <v>1E-3</v>
+      </c>
+      <c r="G246">
+        <v>2E-3</v>
+      </c>
+      <c r="H246">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>205</v>
       </c>
       <c r="B247">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" hidden="1">
+      <c r="C247">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D247">
+        <v>0.28381000000000001</v>
+      </c>
+      <c r="E247">
+        <v>46.387999999999998</v>
+      </c>
+      <c r="F247">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G247">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H247">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>206</v>
       </c>
       <c r="B248">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" hidden="1">
+      <c r="C248">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D248">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="E248">
+        <v>36.801000000000002</v>
+      </c>
+      <c r="F248">
+        <v>2E-3</v>
+      </c>
+      <c r="G248">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H248">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>207</v>
       </c>
       <c r="B249">
         <v>6</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" hidden="1">
+      <c r="C249">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D249">
+        <v>0.33733999999999997</v>
+      </c>
+      <c r="E249">
+        <v>48.848999999999997</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>208</v>
       </c>
       <c r="B250">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1">
+      <c r="C250">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D250">
+        <v>0.20252999999999999</v>
+      </c>
+      <c r="E250">
+        <v>29.478000000000002</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>209</v>
       </c>
       <c r="B251">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" hidden="1">
+      <c r="C251">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D251">
+        <v>0.22584000000000001</v>
+      </c>
+      <c r="E251">
+        <v>35.978000000000002</v>
+      </c>
+      <c r="F251">
+        <v>2E-3</v>
+      </c>
+      <c r="G251">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H251">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>210</v>
       </c>
       <c r="B252">
         <v>7</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" hidden="1">
+      <c r="C252">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D252">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="E252">
+        <v>33.901000000000003</v>
+      </c>
+      <c r="F252">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="G252">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="H252">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>211</v>
       </c>
       <c r="B253">
         <v>7</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" hidden="1">
+      <c r="C253">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D253">
+        <v>0.25758999999999999</v>
+      </c>
+      <c r="E253">
+        <v>40.771999999999998</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>1E-3</v>
+      </c>
+      <c r="H253">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>212</v>
       </c>
       <c r="B254">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" hidden="1">
+      <c r="C254">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D254">
+        <v>0.2263</v>
+      </c>
+      <c r="E254">
+        <v>28.846</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>213</v>
       </c>
       <c r="B255">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" hidden="1">
+      <c r="C255">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D255">
+        <v>0.2399</v>
+      </c>
+      <c r="E255">
+        <v>31.66</v>
+      </c>
+      <c r="F255">
+        <v>1E-3</v>
+      </c>
+      <c r="G255">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H255">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>214</v>
       </c>
       <c r="B256">
         <v>7</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1">
+      <c r="C256">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D256">
+        <v>0.31048999999999999</v>
+      </c>
+      <c r="E256">
+        <v>41.131999999999998</v>
+      </c>
+      <c r="F256">
+        <v>2E-3</v>
+      </c>
+      <c r="G256">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H256">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>215</v>
       </c>
       <c r="B257">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" hidden="1">
+      <c r="C257">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D257">
+        <v>0.31642999999999999</v>
+      </c>
+      <c r="E257">
+        <v>42.823</v>
+      </c>
+      <c r="F257">
+        <v>1E-3</v>
+      </c>
+      <c r="G257">
+        <v>1E-3</v>
+      </c>
+      <c r="H257">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>216</v>
       </c>
       <c r="B258">
         <v>7</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" hidden="1">
+      <c r="C258">
+        <v>0.5</v>
+      </c>
+      <c r="D258">
+        <v>0.16703999999999999</v>
+      </c>
+      <c r="E258">
+        <v>23.843</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>217</v>
       </c>
       <c r="B259">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" hidden="1">
+      <c r="C259">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D259">
+        <v>0.20344000000000001</v>
+      </c>
+      <c r="E259">
+        <v>30.195</v>
+      </c>
+      <c r="F259">
+        <v>1E-3</v>
+      </c>
+      <c r="G259">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H259">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>218</v>
       </c>
       <c r="B260">
         <v>7</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" hidden="1">
+      <c r="C260">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D260">
+        <v>0.13342999999999999</v>
+      </c>
+      <c r="E260">
+        <v>14.932</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1E-3</v>
+      </c>
+      <c r="H260">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>219</v>
       </c>
       <c r="B261">
         <v>7</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" hidden="1">
+      <c r="C261">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D261">
+        <v>0.11214</v>
+      </c>
+      <c r="E261">
+        <v>12.922000000000001</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>220</v>
       </c>
       <c r="B262">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" hidden="1">
+      <c r="C262">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D262">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E262">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>221</v>
       </c>
       <c r="B263">
         <v>7</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" hidden="1">
+      <c r="C263">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D263">
+        <v>8.3700000000000007E-3</v>
+      </c>
+      <c r="E263">
+        <v>1.806</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>222</v>
       </c>
       <c r="B264">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" hidden="1">
+      <c r="C264">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D264">
+        <v>0.11635</v>
+      </c>
+      <c r="E264">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="F264">
+        <v>4.1589999999999998</v>
+      </c>
+      <c r="G264">
+        <v>21.876000000000001</v>
+      </c>
+      <c r="H264">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>223</v>
       </c>
       <c r="B265">
         <v>7</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1">
+      <c r="C265">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D265">
+        <v>0.16636999999999999</v>
+      </c>
+      <c r="E265">
+        <v>24.027000000000001</v>
+      </c>
+      <c r="F265">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="G265">
+        <v>10.217000000000001</v>
+      </c>
+      <c r="H265">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>224</v>
       </c>
       <c r="B266">
         <v>7</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" hidden="1">
+      <c r="C266">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D266">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="E266">
+        <v>45.081000000000003</v>
+      </c>
+      <c r="F266">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G266">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H266">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>225</v>
       </c>
       <c r="B267">
         <v>7</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" hidden="1">
+      <c r="C267">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="D267">
+        <v>0.40138000000000001</v>
+      </c>
+      <c r="E267">
+        <v>49.311</v>
+      </c>
+      <c r="F267">
+        <v>2E-3</v>
+      </c>
+      <c r="G267">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H267">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>226</v>
       </c>
       <c r="B268">
         <v>7</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" hidden="1">
+      <c r="C268">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D268">
+        <v>0.12293</v>
+      </c>
+      <c r="E268">
+        <v>17.32</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>2E-3</v>
+      </c>
+      <c r="H268">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>227</v>
       </c>
       <c r="B269">
         <v>7</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" hidden="1">
+      <c r="C269">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D269">
+        <v>0.18912000000000001</v>
+      </c>
+      <c r="E269">
+        <v>25.198</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>228</v>
       </c>
       <c r="B270">
         <v>7</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" hidden="1">
+      <c r="C270">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D270">
+        <v>2.7830000000000001E-2</v>
+      </c>
+      <c r="E270">
+        <v>4.6189999999999998</v>
+      </c>
+      <c r="F270">
+        <v>0.12</v>
+      </c>
+      <c r="G270">
+        <v>2.6</v>
+      </c>
+      <c r="H270">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>229</v>
       </c>
       <c r="B271">
         <v>7</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1">
+      <c r="C271">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D271">
+        <v>3.5159999999999997E-2</v>
+      </c>
+      <c r="E271">
+        <v>5.306</v>
+      </c>
+      <c r="F271">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G271">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H271">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>230</v>
       </c>
       <c r="B272">
         <v>7</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" hidden="1">
+      <c r="C272">
+        <v>0.24</v>
+      </c>
+      <c r="D272">
+        <v>9.8379999999999995E-2</v>
+      </c>
+      <c r="E272">
+        <v>12.555</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>2E-3</v>
+      </c>
+      <c r="H272">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>231</v>
       </c>
       <c r="B273">
         <v>7</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" hidden="1">
+      <c r="C273">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D273">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E273">
+        <v>13.032999999999999</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1E-3</v>
+      </c>
+      <c r="H273">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>232</v>
       </c>
       <c r="B274">
         <v>7</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" hidden="1">
+      <c r="C274">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D274">
+        <v>0.15212000000000001</v>
+      </c>
+      <c r="E274">
+        <v>20.465</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>233</v>
       </c>
       <c r="B275">
         <v>7</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" hidden="1">
+      <c r="C275">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D275">
+        <v>0.14421</v>
+      </c>
+      <c r="E275">
+        <v>21.068999999999999</v>
+      </c>
+      <c r="F275">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G275">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H275">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>234</v>
       </c>
       <c r="B276">
         <v>7</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" hidden="1">
+      <c r="C276">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D276">
+        <v>4.4229999999999998E-2</v>
+      </c>
+      <c r="E276">
+        <v>8.9280000000000008</v>
+      </c>
+      <c r="F276">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G276">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H276">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>235</v>
       </c>
       <c r="B277">
         <v>7</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" hidden="1">
+      <c r="C277">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D277">
+        <v>4.19E-2</v>
+      </c>
+      <c r="E277">
+        <v>8.4250000000000007</v>
+      </c>
+      <c r="F277">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G277">
+        <v>2.677</v>
+      </c>
+      <c r="H277">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>236</v>
       </c>
       <c r="B278">
         <v>7</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" hidden="1">
+      <c r="C278">
+        <v>1.129</v>
+      </c>
+      <c r="D278">
+        <v>0.41454999999999997</v>
+      </c>
+      <c r="E278">
+        <v>49.274000000000001</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>237</v>
       </c>
       <c r="B279">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" hidden="1">
+      <c r="C279">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="D279">
+        <v>0.38485999999999998</v>
+      </c>
+      <c r="E279">
+        <v>46.639000000000003</v>
+      </c>
+      <c r="F279">
+        <v>1E-3</v>
+      </c>
+      <c r="G279">
+        <v>1E-3</v>
+      </c>
+      <c r="H279">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>238</v>
       </c>
       <c r="B280">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" hidden="1">
+      <c r="C280">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D280">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="E280">
+        <v>32.405999999999999</v>
+      </c>
+      <c r="F280">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G280">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H280">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>239</v>
       </c>
       <c r="B281">
         <v>7</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" hidden="1">
+      <c r="C281">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D281">
+        <v>0.25982</v>
+      </c>
+      <c r="E281">
+        <v>32.097000000000001</v>
+      </c>
+      <c r="F281">
+        <v>1E-3</v>
+      </c>
+      <c r="G281">
+        <v>2E-3</v>
+      </c>
+      <c r="H281">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>240</v>
       </c>
       <c r="B282">
         <v>7</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" hidden="1">
+      <c r="C282">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D282">
+        <v>9.3109999999999998E-2</v>
+      </c>
+      <c r="E282">
+        <v>14.615</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H282">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>241</v>
       </c>
       <c r="B283">
         <v>7</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" hidden="1">
+      <c r="C283">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D283">
+        <v>0.11068</v>
+      </c>
+      <c r="E283">
+        <v>18.713999999999999</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>242</v>
       </c>
       <c r="B284">
         <v>7</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" hidden="1">
+      <c r="C284">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D284">
+        <v>0.25911000000000001</v>
+      </c>
+      <c r="E284">
+        <v>24.864999999999998</v>
+      </c>
+      <c r="F284">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G284">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H284">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>243</v>
       </c>
       <c r="B285">
         <v>7</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" hidden="1">
+      <c r="C285">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D285">
+        <v>0.26225999999999999</v>
+      </c>
+      <c r="E285">
+        <v>27.753</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>1E-3</v>
+      </c>
+      <c r="H285">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>244</v>
       </c>
       <c r="B286">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" hidden="1">
+      <c r="C286">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D286">
+        <v>0.21306</v>
+      </c>
+      <c r="E286">
+        <v>28.722999999999999</v>
+      </c>
+      <c r="F286">
+        <v>1E-3</v>
+      </c>
+      <c r="G286">
+        <v>2E-3</v>
+      </c>
+      <c r="H286">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>245</v>
       </c>
       <c r="B287">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" hidden="1">
+      <c r="C287">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D287">
+        <v>0.23888999999999999</v>
+      </c>
+      <c r="E287">
+        <v>32.232999999999997</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>1E-3</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>246</v>
       </c>
       <c r="B288">
         <v>7</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" hidden="1">
+      <c r="C288">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D288">
+        <v>6.7200000000000003E-3</v>
+      </c>
+      <c r="E288">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="F288">
+        <v>1E-3</v>
+      </c>
+      <c r="G288">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H288">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>247</v>
       </c>
       <c r="B289">
         <v>7</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" hidden="1">
+      <c r="C289">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D289">
+        <v>6.4200000000000004E-3</v>
+      </c>
+      <c r="E289">
+        <v>1.282</v>
+      </c>
+      <c r="F289">
+        <v>2E-3</v>
+      </c>
+      <c r="G289">
+        <v>0.159</v>
+      </c>
+      <c r="H289">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>248</v>
       </c>
       <c r="B290">
         <v>7</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1">
+      <c r="C290">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D290">
+        <v>0.14435999999999999</v>
+      </c>
+      <c r="E290">
+        <v>16.97</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>249</v>
       </c>
       <c r="B291">
         <v>7</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1">
+      <c r="C291">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D291">
+        <v>0.19733000000000001</v>
+      </c>
+      <c r="E291">
+        <v>24.167999999999999</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>2E-3</v>
+      </c>
+      <c r="H291">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>250</v>
       </c>
       <c r="B292">
         <v>7</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" hidden="1">
+      <c r="C292">
+        <v>0.51</v>
+      </c>
+      <c r="D292">
+        <v>0.17913999999999999</v>
+      </c>
+      <c r="E292">
+        <v>43.454000000000001</v>
+      </c>
+      <c r="F292">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G292">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H292">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>251</v>
       </c>
       <c r="B293">
         <v>7</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" hidden="1">
+      <c r="C293">
+        <v>0.47</v>
+      </c>
+      <c r="D293">
+        <v>0.17654</v>
+      </c>
+      <c r="E293">
+        <v>43.527999999999999</v>
+      </c>
+      <c r="F293">
+        <v>2E-3</v>
+      </c>
+      <c r="G293">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H293">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>252</v>
       </c>
       <c r="B294">
         <v>7</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1">
+      <c r="C294">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D294">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="E294">
+        <v>26.96</v>
+      </c>
+      <c r="F294">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G294">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H294">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>253</v>
       </c>
       <c r="B295">
         <v>7</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" hidden="1">
+      <c r="C295">
+        <v>0.498</v>
+      </c>
+      <c r="D295">
+        <v>0.19974</v>
+      </c>
+      <c r="E295">
+        <v>27.457000000000001</v>
+      </c>
+      <c r="F295">
+        <v>1E-3</v>
+      </c>
+      <c r="G295">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H295">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>254</v>
       </c>
@@ -7328,7 +9364,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>255</v>
       </c>
@@ -7351,7 +9387,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>256</v>
       </c>
@@ -7374,7 +9410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>257</v>
       </c>
@@ -7397,7 +9433,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>258</v>
       </c>
@@ -7405,7 +9441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>259</v>
       </c>
@@ -7413,7 +9449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>260</v>
       </c>
@@ -7436,7 +9472,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>261</v>
       </c>
@@ -7459,7 +9495,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>262</v>
       </c>
@@ -7482,7 +9518,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>263</v>
       </c>
@@ -7505,7 +9541,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>264</v>
       </c>
@@ -7528,7 +9564,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>265</v>
       </c>
@@ -7551,7 +9587,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>148</v>
       </c>
@@ -7574,7 +9610,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>149</v>
       </c>
@@ -7597,7 +9633,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>266</v>
       </c>
@@ -7620,7 +9656,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>267</v>
       </c>
@@ -7643,7 +9679,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>268</v>
       </c>
@@ -7666,7 +9702,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>269</v>
       </c>
@@ -7689,7 +9725,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>126</v>
       </c>
@@ -7712,7 +9748,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>127</v>
       </c>
@@ -7735,7 +9771,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>270</v>
       </c>
@@ -7758,7 +9794,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>271</v>
       </c>
@@ -7781,7 +9817,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>272</v>
       </c>
@@ -7804,7 +9840,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>273</v>
       </c>
@@ -7827,7 +9863,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>274</v>
       </c>
@@ -7835,7 +9871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>275</v>
       </c>
@@ -7843,7 +9879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>470</v>
       </c>
@@ -7866,7 +9902,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>471</v>
       </c>
@@ -7889,7 +9925,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>92</v>
       </c>
@@ -7912,7 +9948,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>93</v>
       </c>
@@ -7935,7 +9971,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>276</v>
       </c>
@@ -7958,7 +9994,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>277</v>
       </c>
@@ -7981,7 +10017,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>278</v>
       </c>
@@ -7989,7 +10025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>279</v>
       </c>
@@ -7997,7 +10033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>280</v>
       </c>
@@ -8020,7 +10056,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>281</v>
       </c>
@@ -8043,7 +10079,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>282</v>
       </c>
@@ -8066,7 +10102,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>283</v>
       </c>
@@ -8089,7 +10125,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>284</v>
       </c>
@@ -8112,7 +10148,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>285</v>
       </c>
@@ -8135,7 +10171,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>286</v>
       </c>
@@ -8158,7 +10194,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>287</v>
       </c>
@@ -8181,7 +10217,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>288</v>
       </c>
@@ -8204,7 +10240,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>289</v>
       </c>
@@ -8227,7 +10263,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>134</v>
       </c>
@@ -8250,7 +10286,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>135</v>
       </c>
@@ -8273,7 +10309,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>150</v>
       </c>
@@ -8296,7 +10332,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>151</v>
       </c>
@@ -8319,7 +10355,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>290</v>
       </c>
@@ -8342,7 +10378,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>291</v>
       </c>
@@ -8365,7 +10401,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>292</v>
       </c>
@@ -8388,7 +10424,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>293</v>
       </c>
@@ -8411,7 +10447,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>294</v>
       </c>
@@ -8434,7 +10470,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>295</v>
       </c>
@@ -8457,7 +10493,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>296</v>
       </c>
@@ -8480,7 +10516,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>297</v>
       </c>
@@ -8503,7 +10539,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>298</v>
       </c>
@@ -8526,7 +10562,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>299</v>
       </c>
@@ -8549,7 +10585,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>300</v>
       </c>
@@ -8572,7 +10608,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>301</v>
       </c>
@@ -8595,7 +10631,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>302</v>
       </c>
@@ -8618,7 +10654,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>303</v>
       </c>
@@ -8641,7 +10677,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>142</v>
       </c>
@@ -8664,7 +10700,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>143</v>
       </c>
@@ -8687,7 +10723,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>304</v>
       </c>
@@ -8710,7 +10746,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>305</v>
       </c>
@@ -8733,7 +10769,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>306</v>
       </c>
@@ -8756,7 +10792,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>307</v>
       </c>
@@ -8779,7 +10815,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>308</v>
       </c>
@@ -8802,7 +10838,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>309</v>
       </c>
@@ -8825,7 +10861,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>310</v>
       </c>
@@ -8848,7 +10884,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>311</v>
       </c>
@@ -8871,7 +10907,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>312</v>
       </c>
@@ -8894,7 +10930,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>313</v>
       </c>
@@ -8917,7 +10953,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>314</v>
       </c>
@@ -8940,7 +10976,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>315</v>
       </c>
@@ -8963,7 +10999,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>100</v>
       </c>
@@ -8986,7 +11022,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>101</v>
       </c>
@@ -9009,7 +11045,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>316</v>
       </c>
@@ -9032,7 +11068,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>317</v>
       </c>
@@ -9055,7 +11091,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>128</v>
       </c>
@@ -9078,7 +11114,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>129</v>
       </c>
@@ -9101,7 +11137,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>204</v>
       </c>
@@ -9127,7 +11163,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>205</v>
       </c>
@@ -9153,7 +11189,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -9179,7 +11215,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>6</v>
       </c>
@@ -9205,7 +11241,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>318</v>
       </c>
@@ -9213,7 +11249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>319</v>
       </c>
@@ -9221,7 +11257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>3</v>
       </c>
@@ -9247,7 +11283,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -9273,7 +11309,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>320</v>
       </c>
@@ -9299,7 +11335,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>321</v>
       </c>
@@ -9325,7 +11361,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>194</v>
       </c>
@@ -9351,7 +11387,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>195</v>
       </c>
@@ -9377,7 +11413,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>322</v>
       </c>
@@ -9403,7 +11439,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>323</v>
       </c>
@@ -9429,7 +11465,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>324</v>
       </c>
@@ -9455,7 +11491,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>325</v>
       </c>
@@ -9481,7 +11517,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>45</v>
       </c>
@@ -9507,7 +11543,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>46</v>
       </c>
@@ -9533,7 +11569,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>326</v>
       </c>
@@ -9559,7 +11595,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>327</v>
       </c>
@@ -9585,7 +11621,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>328</v>
       </c>
@@ -9593,7 +11629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>329</v>
       </c>
@@ -9602,7 +11638,7 @@
       </c>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="1:8" hidden="1">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>330</v>
       </c>
@@ -9628,7 +11664,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>331</v>
       </c>
@@ -9654,7 +11690,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>332</v>
       </c>
@@ -9680,7 +11716,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>333</v>
       </c>
@@ -9706,7 +11742,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>334</v>
       </c>
@@ -9732,7 +11768,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>335</v>
       </c>
@@ -9758,7 +11794,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>336</v>
       </c>
@@ -9784,7 +11820,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>337</v>
       </c>
@@ -9810,7 +11846,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>338</v>
       </c>
@@ -9836,7 +11872,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>339</v>
       </c>
@@ -9862,7 +11898,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>340</v>
       </c>
@@ -9871,7 +11907,7 @@
       </c>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:8" hidden="1">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>341</v>
       </c>
@@ -9879,7 +11915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>342</v>
       </c>
@@ -9905,7 +11941,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>343</v>
       </c>
@@ -9931,7 +11967,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>244</v>
       </c>
@@ -9957,7 +11993,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>245</v>
       </c>
@@ -9983,7 +12019,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>230</v>
       </c>
@@ -10009,7 +12045,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>231</v>
       </c>
@@ -10035,7 +12071,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>110</v>
       </c>
@@ -10043,7 +12079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>111</v>
       </c>
@@ -10051,7 +12087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>344</v>
       </c>
@@ -10077,7 +12113,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>345</v>
       </c>
@@ -10103,7 +12139,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>346</v>
       </c>
@@ -10129,7 +12165,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>347</v>
       </c>
@@ -10155,7 +12191,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>348</v>
       </c>
@@ -10181,7 +12217,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>349</v>
       </c>
@@ -10207,7 +12243,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>142</v>
       </c>
@@ -10233,7 +12269,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>143</v>
       </c>
@@ -10259,7 +12295,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>350</v>
       </c>
@@ -10285,7 +12321,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>351</v>
       </c>
@@ -10311,7 +12347,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>352</v>
       </c>
@@ -10337,7 +12373,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>353</v>
       </c>
@@ -10363,7 +12399,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>354</v>
       </c>
@@ -10389,7 +12425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>355</v>
       </c>
@@ -10415,7 +12451,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>356</v>
       </c>
@@ -10441,7 +12477,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>357</v>
       </c>
@@ -10467,7 +12503,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>358</v>
       </c>
@@ -10493,7 +12529,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>359</v>
       </c>
@@ -10519,7 +12555,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>360</v>
       </c>
@@ -10545,7 +12581,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>361</v>
       </c>
@@ -10571,7 +12607,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>128</v>
       </c>
@@ -10597,7 +12633,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>129</v>
       </c>
@@ -10623,7 +12659,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>100</v>
       </c>
@@ -10649,7 +12685,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>101</v>
       </c>
@@ -10675,7 +12711,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>96</v>
       </c>
@@ -10701,7 +12737,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>97</v>
       </c>
@@ -10727,7 +12763,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>362</v>
       </c>
@@ -10753,7 +12789,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>363</v>
       </c>
@@ -10779,7 +12815,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>364</v>
       </c>
@@ -10805,7 +12841,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>365</v>
       </c>
@@ -10823,7 +12859,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>366</v>
       </c>
@@ -10849,7 +12885,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>367</v>
       </c>
@@ -10875,7 +12911,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>368</v>
       </c>
@@ -10901,7 +12937,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>369</v>
       </c>
@@ -10927,7 +12963,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>306</v>
       </c>
@@ -10953,7 +12989,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>307</v>
       </c>
@@ -10979,7 +13015,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>370</v>
       </c>
@@ -11005,7 +13041,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>371</v>
       </c>
@@ -11031,7 +13067,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>260</v>
       </c>
@@ -11057,7 +13093,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>261</v>
       </c>
@@ -11083,7 +13119,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>372</v>
       </c>
@@ -11109,7 +13145,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>373</v>
       </c>
@@ -11135,7 +13171,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>374</v>
       </c>
@@ -11161,7 +13197,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>375</v>
       </c>
@@ -11187,7 +13223,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>88</v>
       </c>
@@ -11213,7 +13249,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>89</v>
       </c>
@@ -11239,7 +13275,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>376</v>
       </c>
@@ -11265,7 +13301,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>377</v>
       </c>
@@ -11291,7 +13327,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>378</v>
       </c>
@@ -11317,7 +13353,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>379</v>
       </c>
@@ -11343,7 +13379,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>380</v>
       </c>
@@ -11369,7 +13405,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>381</v>
       </c>
@@ -11395,7 +13431,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>84</v>
       </c>
@@ -11421,7 +13457,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>85</v>
       </c>
@@ -11447,7 +13483,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>382</v>
       </c>
@@ -11456,7 +13492,7 @@
       </c>
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="1:8" hidden="1">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>383</v>
       </c>
@@ -11465,7 +13501,7 @@
       </c>
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="1:8" hidden="1">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>110</v>
       </c>
@@ -11473,7 +13509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>111</v>
       </c>
@@ -11481,7 +13517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>384</v>
       </c>
@@ -11507,7 +13543,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>385</v>
       </c>
@@ -11533,7 +13569,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>386</v>
       </c>
@@ -11559,7 +13595,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>387</v>
       </c>
@@ -11585,7 +13621,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1</v>
       </c>
@@ -11611,7 +13647,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2</v>
       </c>
@@ -11637,7 +13673,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>180</v>
       </c>
@@ -11663,7 +13699,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>181</v>
       </c>
@@ -11689,7 +13725,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>388</v>
       </c>
@@ -11715,7 +13751,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>389</v>
       </c>
@@ -11741,7 +13777,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>76</v>
       </c>
@@ -11767,7 +13803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>77</v>
       </c>
@@ -11793,7 +13829,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>62</v>
       </c>
@@ -11819,7 +13855,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>63</v>
       </c>
@@ -11845,7 +13881,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>49</v>
       </c>
@@ -11871,7 +13907,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>50</v>
       </c>
@@ -11897,7 +13933,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>184</v>
       </c>
@@ -11923,7 +13959,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>185</v>
       </c>
@@ -11949,7 +13985,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>78</v>
       </c>
@@ -11975,7 +14011,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>79</v>
       </c>
@@ -12001,7 +14037,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>390</v>
       </c>
@@ -12027,7 +14063,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>391</v>
       </c>
@@ -12053,7 +14089,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>170</v>
       </c>
@@ -12079,7 +14115,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>171</v>
       </c>
@@ -12105,7 +14141,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>332</v>
       </c>
@@ -12131,7 +14167,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>333</v>
       </c>
@@ -12157,7 +14193,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>392</v>
       </c>
@@ -12165,7 +14201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>393</v>
       </c>
@@ -12173,7 +14209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>394</v>
       </c>
@@ -12199,7 +14235,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>395</v>
       </c>
@@ -12225,7 +14261,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>328</v>
       </c>
@@ -12251,7 +14287,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>329</v>
       </c>
@@ -12277,7 +14313,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>396</v>
       </c>
@@ -12285,7 +14321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>397</v>
       </c>
@@ -12293,7 +14329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>398</v>
       </c>
@@ -12319,7 +14355,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>399</v>
       </c>
@@ -12345,7 +14381,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>400</v>
       </c>
@@ -12353,7 +14389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>401</v>
       </c>
@@ -12361,7 +14397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>402</v>
       </c>
@@ -12369,7 +14405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>403</v>
       </c>
@@ -12377,7 +14413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>404</v>
       </c>
@@ -12403,7 +14439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>405</v>
       </c>
@@ -12429,7 +14465,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>406</v>
       </c>
@@ -12455,7 +14491,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>407</v>
       </c>
@@ -12481,7 +14517,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>408</v>
       </c>
@@ -12507,7 +14543,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>409</v>
       </c>
@@ -12533,7 +14569,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>410</v>
       </c>
@@ -12559,7 +14595,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>411</v>
       </c>
@@ -12585,7 +14621,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>412</v>
       </c>
@@ -12611,7 +14647,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>413</v>
       </c>
@@ -12637,7 +14673,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>414</v>
       </c>
@@ -12663,7 +14699,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>415</v>
       </c>
@@ -12689,7 +14725,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>416</v>
       </c>
@@ -12715,7 +14751,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>417</v>
       </c>
@@ -12741,7 +14777,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>418</v>
       </c>
@@ -12767,7 +14803,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>419</v>
       </c>
@@ -12793,7 +14829,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>420</v>
       </c>
@@ -12801,7 +14837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>421</v>
       </c>
@@ -12809,7 +14845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>422</v>
       </c>
@@ -12835,7 +14871,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>423</v>
       </c>
@@ -12861,7 +14897,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>424</v>
       </c>
@@ -12887,7 +14923,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>425</v>
       </c>
@@ -12913,7 +14949,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>236</v>
       </c>
@@ -12939,7 +14975,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>237</v>
       </c>
@@ -12965,7 +15001,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>228</v>
       </c>
@@ -12973,7 +15009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>229</v>
       </c>
@@ -12981,7 +15017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>426</v>
       </c>
@@ -13007,7 +15043,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>427</v>
       </c>
@@ -13033,7 +15069,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>428</v>
       </c>
@@ -13059,7 +15095,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>429</v>
       </c>
@@ -13085,7 +15121,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>430</v>
       </c>
@@ -13111,7 +15147,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>431</v>
       </c>
@@ -13137,7 +15173,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>212</v>
       </c>
@@ -13163,7 +15199,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>213</v>
       </c>
@@ -13189,7 +15225,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>104</v>
       </c>
@@ -13215,7 +15251,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>105</v>
       </c>
@@ -13241,7 +15277,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>432</v>
       </c>
@@ -13267,7 +15303,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>433</v>
       </c>
@@ -13293,7 +15329,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>434</v>
       </c>
@@ -13319,7 +15355,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>435</v>
       </c>
@@ -13345,7 +15381,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>436</v>
       </c>
@@ -13371,7 +15407,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>437</v>
       </c>
@@ -13397,7 +15433,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>438</v>
       </c>
@@ -13423,7 +15459,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>439</v>
       </c>
@@ -13449,7 +15485,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>440</v>
       </c>
@@ -13475,7 +15511,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>441</v>
       </c>
@@ -13501,7 +15537,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>366</v>
       </c>
@@ -13527,7 +15563,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>367</v>
       </c>
@@ -13553,7 +15589,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>442</v>
       </c>
@@ -13579,7 +15615,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>443</v>
       </c>
@@ -13605,7 +15641,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>236</v>
       </c>
@@ -13631,7 +15667,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>237</v>
       </c>
@@ -13657,7 +15693,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>228</v>
       </c>
@@ -13683,7 +15719,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>229</v>
       </c>
@@ -13709,7 +15745,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>33</v>
       </c>
@@ -13735,7 +15771,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>34</v>
       </c>
@@ -13761,7 +15797,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>444</v>
       </c>
@@ -13787,7 +15823,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>445</v>
       </c>
@@ -13813,7 +15849,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>446</v>
       </c>
@@ -13839,7 +15875,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>447</v>
       </c>
@@ -13865,7 +15901,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>57</v>
       </c>
@@ -13891,7 +15927,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>448</v>
       </c>
@@ -13917,7 +15953,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>449</v>
       </c>
@@ -13943,7 +15979,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>450</v>
       </c>
@@ -13969,7 +16005,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>11</v>
       </c>
@@ -13995,7 +16031,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>12</v>
       </c>
@@ -14021,7 +16057,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>45</v>
       </c>
@@ -14047,7 +16083,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>46</v>
       </c>
@@ -14073,7 +16109,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>451</v>
       </c>
@@ -14099,7 +16135,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>452</v>
       </c>
@@ -14125,7 +16161,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>5</v>
       </c>
@@ -14151,7 +16187,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>6</v>
       </c>
@@ -14177,7 +16213,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>453</v>
       </c>
@@ -14203,7 +16239,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>454</v>
       </c>
@@ -14229,7 +16265,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>453</v>
       </c>
@@ -14255,7 +16291,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>454</v>
       </c>
@@ -14281,7 +16317,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>455</v>
       </c>
@@ -14307,7 +16343,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>456</v>
       </c>
@@ -14333,7 +16369,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>457</v>
       </c>
@@ -14359,7 +16395,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>458</v>
       </c>
@@ -14385,7 +16421,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>66</v>
       </c>
@@ -14411,7 +16447,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>67</v>
       </c>
@@ -14437,7 +16473,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>51</v>
       </c>
@@ -14463,7 +16499,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>52</v>
       </c>
@@ -14489,7 +16525,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>202</v>
       </c>
@@ -14515,7 +16551,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>203</v>
       </c>
@@ -14541,7 +16577,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>459</v>
       </c>
@@ -14567,7 +16603,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>460</v>
       </c>
@@ -14593,7 +16629,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>461</v>
       </c>
@@ -14619,7 +16655,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>462</v>
       </c>
@@ -14645,7 +16681,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>23</v>
       </c>
@@ -14671,7 +16707,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>24</v>
       </c>
@@ -14697,7 +16733,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>446</v>
       </c>
@@ -14723,7 +16759,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>447</v>
       </c>
@@ -14749,7 +16785,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>35</v>
       </c>
@@ -14775,7 +16811,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>36</v>
       </c>
@@ -14801,7 +16837,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>182</v>
       </c>
@@ -14827,7 +16863,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>183</v>
       </c>
@@ -14857,16 +16893,17 @@
   <autoFilter ref="A1:H615">
     <filterColumn colId="1">
       <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
         <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>